--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50FFAFF-54DB-4B02-A75E-C3A0B40EE13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDED917-2C46-4533-8384-0FFD8C7354B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
     <sheet name="設定" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ガントチャート!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ガントチャート!$A$1:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,11 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>カテゴリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -65,10 +61,6 @@
     <rPh sb="0" eb="3">
       <t>シュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -119,6 +111,107 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>戦車と壁の当たり判定をOBBに変更</t>
+    <rPh sb="0" eb="2">
+      <t>センシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵がプレイヤーを追いかける</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵がスキルを使う</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルを使用している間、出現し続ける</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが射程範囲内に入ったら、弾を撃つ</t>
+    <rPh sb="6" eb="8">
+      <t>シャテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクトを追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦車のBoxComponentを調整</t>
+    <rPh sb="0" eb="2">
+      <t>センシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業バッファ</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -129,7 +222,7 @@
     <numFmt numFmtId="177" formatCode="d"/>
     <numFmt numFmtId="178" formatCode="m&quot;月&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +238,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -284,12 +391,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +460,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,10 +488,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - アクセント 6" xfId="1" builtinId="51"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="darkGrid">
@@ -377,6 +506,13 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -726,18 +862,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}">
-  <dimension ref="A1:FC65"/>
+  <dimension ref="A1:FC70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="46.75" style="5" customWidth="1"/>
+    <col min="2" max="4" width="13.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="1" style="20" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="18" customWidth="1"/>
     <col min="7" max="125" width="5.625" style="1" customWidth="1"/>
     <col min="126" max="126" width="5.625" style="18" customWidth="1"/>
@@ -746,21 +882,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>6</v>
-      </c>
+      <c r="D1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="20"/>
       <c r="F1" s="15">
         <f>設定!A2</f>
         <v>44501</v>
@@ -1277,11 +1411,11 @@
       <c r="FC1" s="8"/>
     </row>
     <row r="2" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="16">
         <f>F1</f>
         <v>44501</v>
@@ -1798,11 +1932,11 @@
       <c r="FC2" s="9"/>
     </row>
     <row r="3" spans="1:159" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="17">
         <f>F2</f>
         <v>44501</v>
@@ -2320,21 +2454,20 @@
     </row>
     <row r="4" spans="1:159" s="7" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>44501</v>
       </c>
       <c r="C4" s="12">
-        <v>44501</v>
-      </c>
-      <c r="D4" s="12">
         <v>44507</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -2454,13 +2587,20 @@
       <c r="DT4" s="6"/>
       <c r="DU4" s="13"/>
     </row>
-    <row r="5" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
+    <row r="5" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="12">
+        <v>44502</v>
+      </c>
+      <c r="C5" s="12">
+        <v>44507</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2495,99 +2635,106 @@
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
-      <c r="BG5" s="4"/>
-      <c r="BH5" s="4"/>
-      <c r="BI5" s="4"/>
-      <c r="BJ5" s="4"/>
-      <c r="BK5" s="4"/>
-      <c r="BL5" s="4"/>
-      <c r="BM5" s="4"/>
-      <c r="BN5" s="4"/>
-      <c r="BO5" s="4"/>
-      <c r="BP5" s="4"/>
-      <c r="BQ5" s="4"/>
-      <c r="BR5" s="4"/>
-      <c r="BS5" s="4"/>
-      <c r="BT5" s="4"/>
-      <c r="BU5" s="4"/>
-      <c r="BV5" s="4"/>
-      <c r="BW5" s="4"/>
-      <c r="BX5" s="4"/>
-      <c r="BY5" s="4"/>
-      <c r="BZ5" s="4"/>
-      <c r="CA5" s="4"/>
-      <c r="CB5" s="4"/>
-      <c r="CC5" s="4"/>
-      <c r="CD5" s="4"/>
-      <c r="CE5" s="4"/>
-      <c r="CF5" s="4"/>
-      <c r="CG5" s="4"/>
-      <c r="CH5" s="4"/>
-      <c r="CI5" s="4"/>
-      <c r="CJ5" s="4"/>
-      <c r="CK5" s="4"/>
-      <c r="CL5" s="4"/>
-      <c r="CM5" s="4"/>
-      <c r="CN5" s="4"/>
-      <c r="CO5" s="4"/>
-      <c r="CP5" s="4"/>
-      <c r="CQ5" s="4"/>
-      <c r="CR5" s="4"/>
-      <c r="CS5" s="4"/>
-      <c r="CT5" s="4"/>
-      <c r="CU5" s="4"/>
-      <c r="CV5" s="4"/>
-      <c r="CW5" s="4"/>
-      <c r="CX5" s="4"/>
-      <c r="CY5" s="4"/>
-      <c r="CZ5" s="4"/>
-      <c r="DA5" s="4"/>
-      <c r="DB5" s="4"/>
-      <c r="DC5" s="4"/>
-      <c r="DD5" s="4"/>
-      <c r="DE5" s="4"/>
-      <c r="DF5" s="4"/>
-      <c r="DG5" s="4"/>
-      <c r="DH5" s="4"/>
-      <c r="DI5" s="4"/>
-      <c r="DJ5" s="4"/>
-      <c r="DK5" s="4"/>
-      <c r="DL5" s="4"/>
-      <c r="DM5" s="4"/>
-      <c r="DN5" s="4"/>
-      <c r="DO5" s="4"/>
-      <c r="DP5" s="4"/>
-      <c r="DQ5" s="4"/>
-      <c r="DR5" s="4"/>
-      <c r="DS5" s="4"/>
-      <c r="DT5" s="4"/>
-      <c r="DU5" s="14"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6"/>
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="6"/>
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="6"/>
+      <c r="CH5" s="6"/>
+      <c r="CI5" s="6"/>
+      <c r="CJ5" s="6"/>
+      <c r="CK5" s="6"/>
+      <c r="CL5" s="6"/>
+      <c r="CM5" s="6"/>
+      <c r="CN5" s="6"/>
+      <c r="CO5" s="6"/>
+      <c r="CP5" s="6"/>
+      <c r="CQ5" s="6"/>
+      <c r="CR5" s="6"/>
+      <c r="CS5" s="6"/>
+      <c r="CT5" s="6"/>
+      <c r="CU5" s="6"/>
+      <c r="CV5" s="6"/>
+      <c r="CW5" s="6"/>
+      <c r="CX5" s="6"/>
+      <c r="CY5" s="6"/>
+      <c r="CZ5" s="6"/>
+      <c r="DA5" s="6"/>
+      <c r="DB5" s="6"/>
+      <c r="DC5" s="6"/>
+      <c r="DD5" s="6"/>
+      <c r="DE5" s="6"/>
+      <c r="DF5" s="6"/>
+      <c r="DG5" s="6"/>
+      <c r="DH5" s="6"/>
+      <c r="DI5" s="6"/>
+      <c r="DJ5" s="6"/>
+      <c r="DK5" s="6"/>
+      <c r="DL5" s="6"/>
+      <c r="DM5" s="6"/>
+      <c r="DN5" s="6"/>
+      <c r="DO5" s="6"/>
+      <c r="DP5" s="6"/>
+      <c r="DQ5" s="6"/>
+      <c r="DR5" s="6"/>
+      <c r="DS5" s="6"/>
+      <c r="DT5" s="6"/>
+      <c r="DU5" s="13"/>
     </row>
-    <row r="6" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
+    <row r="6" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12">
+        <v>44504</v>
+      </c>
+      <c r="C6" s="12">
+        <v>44507</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2622,99 +2769,106 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
       <c r="AN6" s="6"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="4"/>
-      <c r="BH6" s="4"/>
-      <c r="BI6" s="4"/>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="4"/>
-      <c r="BL6" s="4"/>
-      <c r="BM6" s="4"/>
-      <c r="BN6" s="4"/>
-      <c r="BO6" s="4"/>
-      <c r="BP6" s="4"/>
-      <c r="BQ6" s="4"/>
-      <c r="BR6" s="4"/>
-      <c r="BS6" s="4"/>
-      <c r="BT6" s="4"/>
-      <c r="BU6" s="4"/>
-      <c r="BV6" s="4"/>
-      <c r="BW6" s="4"/>
-      <c r="BX6" s="4"/>
-      <c r="BY6" s="4"/>
-      <c r="BZ6" s="4"/>
-      <c r="CA6" s="4"/>
-      <c r="CB6" s="4"/>
-      <c r="CC6" s="4"/>
-      <c r="CD6" s="4"/>
-      <c r="CE6" s="4"/>
-      <c r="CF6" s="4"/>
-      <c r="CG6" s="4"/>
-      <c r="CH6" s="4"/>
-      <c r="CI6" s="4"/>
-      <c r="CJ6" s="4"/>
-      <c r="CK6" s="4"/>
-      <c r="CL6" s="4"/>
-      <c r="CM6" s="4"/>
-      <c r="CN6" s="4"/>
-      <c r="CO6" s="4"/>
-      <c r="CP6" s="4"/>
-      <c r="CQ6" s="4"/>
-      <c r="CR6" s="4"/>
-      <c r="CS6" s="4"/>
-      <c r="CT6" s="4"/>
-      <c r="CU6" s="4"/>
-      <c r="CV6" s="4"/>
-      <c r="CW6" s="4"/>
-      <c r="CX6" s="4"/>
-      <c r="CY6" s="4"/>
-      <c r="CZ6" s="4"/>
-      <c r="DA6" s="4"/>
-      <c r="DB6" s="4"/>
-      <c r="DC6" s="4"/>
-      <c r="DD6" s="4"/>
-      <c r="DE6" s="4"/>
-      <c r="DF6" s="4"/>
-      <c r="DG6" s="4"/>
-      <c r="DH6" s="4"/>
-      <c r="DI6" s="4"/>
-      <c r="DJ6" s="4"/>
-      <c r="DK6" s="4"/>
-      <c r="DL6" s="4"/>
-      <c r="DM6" s="4"/>
-      <c r="DN6" s="4"/>
-      <c r="DO6" s="4"/>
-      <c r="DP6" s="4"/>
-      <c r="DQ6" s="4"/>
-      <c r="DR6" s="4"/>
-      <c r="DS6" s="4"/>
-      <c r="DT6" s="4"/>
-      <c r="DU6" s="14"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="6"/>
+      <c r="BU6" s="6"/>
+      <c r="BV6" s="6"/>
+      <c r="BW6" s="6"/>
+      <c r="BX6" s="6"/>
+      <c r="BY6" s="6"/>
+      <c r="BZ6" s="6"/>
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="6"/>
+      <c r="CH6" s="6"/>
+      <c r="CI6" s="6"/>
+      <c r="CJ6" s="6"/>
+      <c r="CK6" s="6"/>
+      <c r="CL6" s="6"/>
+      <c r="CM6" s="6"/>
+      <c r="CN6" s="6"/>
+      <c r="CO6" s="6"/>
+      <c r="CP6" s="6"/>
+      <c r="CQ6" s="6"/>
+      <c r="CR6" s="6"/>
+      <c r="CS6" s="6"/>
+      <c r="CT6" s="6"/>
+      <c r="CU6" s="6"/>
+      <c r="CV6" s="6"/>
+      <c r="CW6" s="6"/>
+      <c r="CX6" s="6"/>
+      <c r="CY6" s="6"/>
+      <c r="CZ6" s="6"/>
+      <c r="DA6" s="6"/>
+      <c r="DB6" s="6"/>
+      <c r="DC6" s="6"/>
+      <c r="DD6" s="6"/>
+      <c r="DE6" s="6"/>
+      <c r="DF6" s="6"/>
+      <c r="DG6" s="6"/>
+      <c r="DH6" s="6"/>
+      <c r="DI6" s="6"/>
+      <c r="DJ6" s="6"/>
+      <c r="DK6" s="6"/>
+      <c r="DL6" s="6"/>
+      <c r="DM6" s="6"/>
+      <c r="DN6" s="6"/>
+      <c r="DO6" s="6"/>
+      <c r="DP6" s="6"/>
+      <c r="DQ6" s="6"/>
+      <c r="DR6" s="6"/>
+      <c r="DS6" s="6"/>
+      <c r="DT6" s="6"/>
+      <c r="DU6" s="13"/>
     </row>
-    <row r="7" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
+    <row r="7" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12">
+        <v>44506</v>
+      </c>
+      <c r="C7" s="12">
+        <v>44507</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2749,99 +2903,106 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
       <c r="AN7" s="6"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
-      <c r="BL7" s="4"/>
-      <c r="BM7" s="4"/>
-      <c r="BN7" s="4"/>
-      <c r="BO7" s="4"/>
-      <c r="BP7" s="4"/>
-      <c r="BQ7" s="4"/>
-      <c r="BR7" s="4"/>
-      <c r="BS7" s="4"/>
-      <c r="BT7" s="4"/>
-      <c r="BU7" s="4"/>
-      <c r="BV7" s="4"/>
-      <c r="BW7" s="4"/>
-      <c r="BX7" s="4"/>
-      <c r="BY7" s="4"/>
-      <c r="BZ7" s="4"/>
-      <c r="CA7" s="4"/>
-      <c r="CB7" s="4"/>
-      <c r="CC7" s="4"/>
-      <c r="CD7" s="4"/>
-      <c r="CE7" s="4"/>
-      <c r="CF7" s="4"/>
-      <c r="CG7" s="4"/>
-      <c r="CH7" s="4"/>
-      <c r="CI7" s="4"/>
-      <c r="CJ7" s="4"/>
-      <c r="CK7" s="4"/>
-      <c r="CL7" s="4"/>
-      <c r="CM7" s="4"/>
-      <c r="CN7" s="4"/>
-      <c r="CO7" s="4"/>
-      <c r="CP7" s="4"/>
-      <c r="CQ7" s="4"/>
-      <c r="CR7" s="4"/>
-      <c r="CS7" s="4"/>
-      <c r="CT7" s="4"/>
-      <c r="CU7" s="4"/>
-      <c r="CV7" s="4"/>
-      <c r="CW7" s="4"/>
-      <c r="CX7" s="4"/>
-      <c r="CY7" s="4"/>
-      <c r="CZ7" s="4"/>
-      <c r="DA7" s="4"/>
-      <c r="DB7" s="4"/>
-      <c r="DC7" s="4"/>
-      <c r="DD7" s="4"/>
-      <c r="DE7" s="4"/>
-      <c r="DF7" s="4"/>
-      <c r="DG7" s="4"/>
-      <c r="DH7" s="4"/>
-      <c r="DI7" s="4"/>
-      <c r="DJ7" s="4"/>
-      <c r="DK7" s="4"/>
-      <c r="DL7" s="4"/>
-      <c r="DM7" s="4"/>
-      <c r="DN7" s="4"/>
-      <c r="DO7" s="4"/>
-      <c r="DP7" s="4"/>
-      <c r="DQ7" s="4"/>
-      <c r="DR7" s="4"/>
-      <c r="DS7" s="4"/>
-      <c r="DT7" s="4"/>
-      <c r="DU7" s="14"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6"/>
+      <c r="BZ7" s="6"/>
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="6"/>
+      <c r="CH7" s="6"/>
+      <c r="CI7" s="6"/>
+      <c r="CJ7" s="6"/>
+      <c r="CK7" s="6"/>
+      <c r="CL7" s="6"/>
+      <c r="CM7" s="6"/>
+      <c r="CN7" s="6"/>
+      <c r="CO7" s="6"/>
+      <c r="CP7" s="6"/>
+      <c r="CQ7" s="6"/>
+      <c r="CR7" s="6"/>
+      <c r="CS7" s="6"/>
+      <c r="CT7" s="6"/>
+      <c r="CU7" s="6"/>
+      <c r="CV7" s="6"/>
+      <c r="CW7" s="6"/>
+      <c r="CX7" s="6"/>
+      <c r="CY7" s="6"/>
+      <c r="CZ7" s="6"/>
+      <c r="DA7" s="6"/>
+      <c r="DB7" s="6"/>
+      <c r="DC7" s="6"/>
+      <c r="DD7" s="6"/>
+      <c r="DE7" s="6"/>
+      <c r="DF7" s="6"/>
+      <c r="DG7" s="6"/>
+      <c r="DH7" s="6"/>
+      <c r="DI7" s="6"/>
+      <c r="DJ7" s="6"/>
+      <c r="DK7" s="6"/>
+      <c r="DL7" s="6"/>
+      <c r="DM7" s="6"/>
+      <c r="DN7" s="6"/>
+      <c r="DO7" s="6"/>
+      <c r="DP7" s="6"/>
+      <c r="DQ7" s="6"/>
+      <c r="DR7" s="6"/>
+      <c r="DS7" s="6"/>
+      <c r="DT7" s="6"/>
+      <c r="DU7" s="13"/>
     </row>
-    <row r="8" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
+    <row r="8" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12">
+        <v>44506</v>
+      </c>
+      <c r="C8" s="12">
+        <v>44512</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2876,99 +3037,106 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="6"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
-      <c r="BL8" s="4"/>
-      <c r="BM8" s="4"/>
-      <c r="BN8" s="4"/>
-      <c r="BO8" s="4"/>
-      <c r="BP8" s="4"/>
-      <c r="BQ8" s="4"/>
-      <c r="BR8" s="4"/>
-      <c r="BS8" s="4"/>
-      <c r="BT8" s="4"/>
-      <c r="BU8" s="4"/>
-      <c r="BV8" s="4"/>
-      <c r="BW8" s="4"/>
-      <c r="BX8" s="4"/>
-      <c r="BY8" s="4"/>
-      <c r="BZ8" s="4"/>
-      <c r="CA8" s="4"/>
-      <c r="CB8" s="4"/>
-      <c r="CC8" s="4"/>
-      <c r="CD8" s="4"/>
-      <c r="CE8" s="4"/>
-      <c r="CF8" s="4"/>
-      <c r="CG8" s="4"/>
-      <c r="CH8" s="4"/>
-      <c r="CI8" s="4"/>
-      <c r="CJ8" s="4"/>
-      <c r="CK8" s="4"/>
-      <c r="CL8" s="4"/>
-      <c r="CM8" s="4"/>
-      <c r="CN8" s="4"/>
-      <c r="CO8" s="4"/>
-      <c r="CP8" s="4"/>
-      <c r="CQ8" s="4"/>
-      <c r="CR8" s="4"/>
-      <c r="CS8" s="4"/>
-      <c r="CT8" s="4"/>
-      <c r="CU8" s="4"/>
-      <c r="CV8" s="4"/>
-      <c r="CW8" s="4"/>
-      <c r="CX8" s="4"/>
-      <c r="CY8" s="4"/>
-      <c r="CZ8" s="4"/>
-      <c r="DA8" s="4"/>
-      <c r="DB8" s="4"/>
-      <c r="DC8" s="4"/>
-      <c r="DD8" s="4"/>
-      <c r="DE8" s="4"/>
-      <c r="DF8" s="4"/>
-      <c r="DG8" s="4"/>
-      <c r="DH8" s="4"/>
-      <c r="DI8" s="4"/>
-      <c r="DJ8" s="4"/>
-      <c r="DK8" s="4"/>
-      <c r="DL8" s="4"/>
-      <c r="DM8" s="4"/>
-      <c r="DN8" s="4"/>
-      <c r="DO8" s="4"/>
-      <c r="DP8" s="4"/>
-      <c r="DQ8" s="4"/>
-      <c r="DR8" s="4"/>
-      <c r="DS8" s="4"/>
-      <c r="DT8" s="4"/>
-      <c r="DU8" s="14"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="6"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="6"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="6"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="6"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="6"/>
+      <c r="BZ8" s="6"/>
+      <c r="CA8" s="6"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="6"/>
+      <c r="CF8" s="6"/>
+      <c r="CG8" s="6"/>
+      <c r="CH8" s="6"/>
+      <c r="CI8" s="6"/>
+      <c r="CJ8" s="6"/>
+      <c r="CK8" s="6"/>
+      <c r="CL8" s="6"/>
+      <c r="CM8" s="6"/>
+      <c r="CN8" s="6"/>
+      <c r="CO8" s="6"/>
+      <c r="CP8" s="6"/>
+      <c r="CQ8" s="6"/>
+      <c r="CR8" s="6"/>
+      <c r="CS8" s="6"/>
+      <c r="CT8" s="6"/>
+      <c r="CU8" s="6"/>
+      <c r="CV8" s="6"/>
+      <c r="CW8" s="6"/>
+      <c r="CX8" s="6"/>
+      <c r="CY8" s="6"/>
+      <c r="CZ8" s="6"/>
+      <c r="DA8" s="6"/>
+      <c r="DB8" s="6"/>
+      <c r="DC8" s="6"/>
+      <c r="DD8" s="6"/>
+      <c r="DE8" s="6"/>
+      <c r="DF8" s="6"/>
+      <c r="DG8" s="6"/>
+      <c r="DH8" s="6"/>
+      <c r="DI8" s="6"/>
+      <c r="DJ8" s="6"/>
+      <c r="DK8" s="6"/>
+      <c r="DL8" s="6"/>
+      <c r="DM8" s="6"/>
+      <c r="DN8" s="6"/>
+      <c r="DO8" s="6"/>
+      <c r="DP8" s="6"/>
+      <c r="DQ8" s="6"/>
+      <c r="DR8" s="6"/>
+      <c r="DS8" s="6"/>
+      <c r="DT8" s="6"/>
+      <c r="DU8" s="13"/>
     </row>
-    <row r="9" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
+    <row r="9" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12">
+        <v>44513</v>
+      </c>
+      <c r="C9" s="12">
+        <v>44515</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -3003,98 +3171,106 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-      <c r="BF9" s="4"/>
-      <c r="BG9" s="4"/>
-      <c r="BH9" s="4"/>
-      <c r="BI9" s="4"/>
-      <c r="BJ9" s="4"/>
-      <c r="BK9" s="4"/>
-      <c r="BL9" s="4"/>
-      <c r="BM9" s="4"/>
-      <c r="BN9" s="4"/>
-      <c r="BO9" s="4"/>
-      <c r="BP9" s="4"/>
-      <c r="BQ9" s="4"/>
-      <c r="BR9" s="4"/>
-      <c r="BS9" s="4"/>
-      <c r="BT9" s="4"/>
-      <c r="BU9" s="4"/>
-      <c r="BV9" s="4"/>
-      <c r="BW9" s="4"/>
-      <c r="BX9" s="4"/>
-      <c r="BY9" s="4"/>
-      <c r="BZ9" s="4"/>
-      <c r="CA9" s="4"/>
-      <c r="CB9" s="4"/>
-      <c r="CC9" s="4"/>
-      <c r="CD9" s="4"/>
-      <c r="CE9" s="4"/>
-      <c r="CF9" s="4"/>
-      <c r="CG9" s="4"/>
-      <c r="CH9" s="4"/>
-      <c r="CI9" s="4"/>
-      <c r="CJ9" s="4"/>
-      <c r="CK9" s="4"/>
-      <c r="CL9" s="4"/>
-      <c r="CM9" s="4"/>
-      <c r="CN9" s="4"/>
-      <c r="CO9" s="4"/>
-      <c r="CP9" s="4"/>
-      <c r="CQ9" s="4"/>
-      <c r="CR9" s="4"/>
-      <c r="CS9" s="4"/>
-      <c r="CT9" s="4"/>
-      <c r="CU9" s="4"/>
-      <c r="CV9" s="4"/>
-      <c r="CW9" s="4"/>
-      <c r="CX9" s="4"/>
-      <c r="CY9" s="4"/>
-      <c r="CZ9" s="4"/>
-      <c r="DA9" s="4"/>
-      <c r="DB9" s="4"/>
-      <c r="DC9" s="4"/>
-      <c r="DD9" s="4"/>
-      <c r="DE9" s="4"/>
-      <c r="DF9" s="4"/>
-      <c r="DG9" s="4"/>
-      <c r="DH9" s="4"/>
-      <c r="DI9" s="4"/>
-      <c r="DJ9" s="4"/>
-      <c r="DK9" s="4"/>
-      <c r="DL9" s="4"/>
-      <c r="DM9" s="4"/>
-      <c r="DN9" s="4"/>
-      <c r="DO9" s="4"/>
-      <c r="DP9" s="4"/>
-      <c r="DQ9" s="4"/>
-      <c r="DR9" s="4"/>
-      <c r="DS9" s="4"/>
-      <c r="DT9" s="4"/>
-      <c r="DU9" s="14"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="6"/>
+      <c r="BN9" s="6"/>
+      <c r="BO9" s="6"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="6"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="6"/>
+      <c r="BT9" s="6"/>
+      <c r="BU9" s="6"/>
+      <c r="BV9" s="6"/>
+      <c r="BW9" s="6"/>
+      <c r="BX9" s="6"/>
+      <c r="BY9" s="6"/>
+      <c r="BZ9" s="6"/>
+      <c r="CA9" s="6"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="6"/>
+      <c r="CD9" s="6"/>
+      <c r="CE9" s="6"/>
+      <c r="CF9" s="6"/>
+      <c r="CG9" s="6"/>
+      <c r="CH9" s="6"/>
+      <c r="CI9" s="6"/>
+      <c r="CJ9" s="6"/>
+      <c r="CK9" s="6"/>
+      <c r="CL9" s="6"/>
+      <c r="CM9" s="6"/>
+      <c r="CN9" s="6"/>
+      <c r="CO9" s="6"/>
+      <c r="CP9" s="6"/>
+      <c r="CQ9" s="6"/>
+      <c r="CR9" s="6"/>
+      <c r="CS9" s="6"/>
+      <c r="CT9" s="6"/>
+      <c r="CU9" s="6"/>
+      <c r="CV9" s="6"/>
+      <c r="CW9" s="6"/>
+      <c r="CX9" s="6"/>
+      <c r="CY9" s="6"/>
+      <c r="CZ9" s="6"/>
+      <c r="DA9" s="6"/>
+      <c r="DB9" s="6"/>
+      <c r="DC9" s="6"/>
+      <c r="DD9" s="6"/>
+      <c r="DE9" s="6"/>
+      <c r="DF9" s="6"/>
+      <c r="DG9" s="6"/>
+      <c r="DH9" s="6"/>
+      <c r="DI9" s="6"/>
+      <c r="DJ9" s="6"/>
+      <c r="DK9" s="6"/>
+      <c r="DL9" s="6"/>
+      <c r="DM9" s="6"/>
+      <c r="DN9" s="6"/>
+      <c r="DO9" s="6"/>
+      <c r="DP9" s="6"/>
+      <c r="DQ9" s="6"/>
+      <c r="DR9" s="6"/>
+      <c r="DS9" s="6"/>
+      <c r="DT9" s="6"/>
+      <c r="DU9" s="13"/>
     </row>
     <row r="10" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <v>44516</v>
+      </c>
+      <c r="C10" s="12">
+        <v>44518</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -3217,11 +3393,19 @@
       <c r="DU10" s="14"/>
     </row>
     <row r="11" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12">
+        <v>44519</v>
+      </c>
+      <c r="C11" s="12">
+        <v>44522</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20"/>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -3344,11 +3528,19 @@
       <c r="DU11" s="14"/>
     </row>
     <row r="12" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12">
+        <v>44523</v>
+      </c>
+      <c r="C12" s="12">
+        <v>44528</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20"/>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3471,11 +3663,19 @@
       <c r="DU12" s="14"/>
     </row>
     <row r="13" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C13" s="12">
+        <v>44530</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="20"/>
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -3602,7 +3802,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="7"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -3729,7 +3929,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="7"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -3856,7 +4056,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="7"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -3983,7 +4183,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="7"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -4110,7 +4310,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="7"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -4237,7 +4437,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="7"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -4364,7 +4564,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="7"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4491,7 +4691,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -4618,7 +4818,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="7"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4745,7 +4945,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="7"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -4872,7 +5072,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="7"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -4999,7 +5199,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="7"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -5126,7 +5326,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="7"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -5253,7 +5453,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -5380,7 +5580,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="7"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -5507,7 +5707,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -5634,7 +5834,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="7"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -5761,7 +5961,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="7"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -5888,7 +6088,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="7"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -6015,7 +6215,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="7"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -6142,7 +6342,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="7"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -6269,7 +6469,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="7"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -6396,7 +6596,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="7"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -6523,7 +6723,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="7"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -6650,7 +6850,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="7"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -6777,7 +6977,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="7"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -6904,7 +7104,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="7"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -7031,7 +7231,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="7"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -7158,7 +7358,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="7"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -7285,7 +7485,7 @@
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="7"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -7412,7 +7612,7 @@
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="7"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -7539,7 +7739,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="7"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -7666,7 +7866,7 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="7"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -7793,7 +7993,7 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="7"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -7920,7 +8120,7 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="7"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -8047,7 +8247,7 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="7"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -8174,7 +8374,7 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="7"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8301,7 +8501,7 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="7"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -8428,7 +8628,7 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="20"/>
       <c r="F52" s="7"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -8555,7 +8755,7 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="20"/>
       <c r="F53" s="7"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -8682,7 +8882,7 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="20"/>
       <c r="F54" s="7"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -8809,7 +9009,7 @@
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="20"/>
       <c r="F55" s="7"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -8936,7 +9136,7 @@
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="7"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -9063,7 +9263,7 @@
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="7"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -9190,7 +9390,7 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="7"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -9317,7 +9517,7 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="20"/>
       <c r="F59" s="7"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -9444,7 +9644,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="7"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -9571,7 +9771,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="20"/>
       <c r="F61" s="7"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -9698,7 +9898,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="20"/>
       <c r="F62" s="7"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -9825,7 +10025,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="20"/>
       <c r="F63" s="7"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -9952,7 +10152,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="7"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -10074,7 +10274,12 @@
       <c r="DT64" s="4"/>
       <c r="DU64" s="14"/>
     </row>
-    <row r="65" spans="6:40" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="7"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -10110,28 +10315,657 @@
       <c r="AL65" s="6"/>
       <c r="AM65" s="6"/>
       <c r="AN65" s="6"/>
+      <c r="AO65" s="4"/>
+      <c r="AP65" s="4"/>
+      <c r="AQ65" s="4"/>
+      <c r="AR65" s="4"/>
+      <c r="AS65" s="4"/>
+      <c r="AT65" s="4"/>
+      <c r="AU65" s="4"/>
+      <c r="AV65" s="4"/>
+      <c r="AW65" s="4"/>
+      <c r="AX65" s="4"/>
+      <c r="AY65" s="4"/>
+      <c r="AZ65" s="4"/>
+      <c r="BA65" s="4"/>
+      <c r="BB65" s="4"/>
+      <c r="BC65" s="4"/>
+      <c r="BD65" s="4"/>
+      <c r="BE65" s="4"/>
+      <c r="BF65" s="4"/>
+      <c r="BG65" s="4"/>
+      <c r="BH65" s="4"/>
+      <c r="BI65" s="4"/>
+      <c r="BJ65" s="4"/>
+      <c r="BK65" s="4"/>
+      <c r="BL65" s="4"/>
+      <c r="BM65" s="4"/>
+      <c r="BN65" s="4"/>
+      <c r="BO65" s="4"/>
+      <c r="BP65" s="4"/>
+      <c r="BQ65" s="4"/>
+      <c r="BR65" s="4"/>
+      <c r="BS65" s="4"/>
+      <c r="BT65" s="4"/>
+      <c r="BU65" s="4"/>
+      <c r="BV65" s="4"/>
+      <c r="BW65" s="4"/>
+      <c r="BX65" s="4"/>
+      <c r="BY65" s="4"/>
+      <c r="BZ65" s="4"/>
+      <c r="CA65" s="4"/>
+      <c r="CB65" s="4"/>
+      <c r="CC65" s="4"/>
+      <c r="CD65" s="4"/>
+      <c r="CE65" s="4"/>
+      <c r="CF65" s="4"/>
+      <c r="CG65" s="4"/>
+      <c r="CH65" s="4"/>
+      <c r="CI65" s="4"/>
+      <c r="CJ65" s="4"/>
+      <c r="CK65" s="4"/>
+      <c r="CL65" s="4"/>
+      <c r="CM65" s="4"/>
+      <c r="CN65" s="4"/>
+      <c r="CO65" s="4"/>
+      <c r="CP65" s="4"/>
+      <c r="CQ65" s="4"/>
+      <c r="CR65" s="4"/>
+      <c r="CS65" s="4"/>
+      <c r="CT65" s="4"/>
+      <c r="CU65" s="4"/>
+      <c r="CV65" s="4"/>
+      <c r="CW65" s="4"/>
+      <c r="CX65" s="4"/>
+      <c r="CY65" s="4"/>
+      <c r="CZ65" s="4"/>
+      <c r="DA65" s="4"/>
+      <c r="DB65" s="4"/>
+      <c r="DC65" s="4"/>
+      <c r="DD65" s="4"/>
+      <c r="DE65" s="4"/>
+      <c r="DF65" s="4"/>
+      <c r="DG65" s="4"/>
+      <c r="DH65" s="4"/>
+      <c r="DI65" s="4"/>
+      <c r="DJ65" s="4"/>
+      <c r="DK65" s="4"/>
+      <c r="DL65" s="4"/>
+      <c r="DM65" s="4"/>
+      <c r="DN65" s="4"/>
+      <c r="DO65" s="4"/>
+      <c r="DP65" s="4"/>
+      <c r="DQ65" s="4"/>
+      <c r="DR65" s="4"/>
+      <c r="DS65" s="4"/>
+      <c r="DT65" s="4"/>
+      <c r="DU65" s="14"/>
+    </row>
+    <row r="66" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="6"/>
+      <c r="AL66" s="6"/>
+      <c r="AM66" s="6"/>
+      <c r="AN66" s="6"/>
+      <c r="AO66" s="4"/>
+      <c r="AP66" s="4"/>
+      <c r="AQ66" s="4"/>
+      <c r="AR66" s="4"/>
+      <c r="AS66" s="4"/>
+      <c r="AT66" s="4"/>
+      <c r="AU66" s="4"/>
+      <c r="AV66" s="4"/>
+      <c r="AW66" s="4"/>
+      <c r="AX66" s="4"/>
+      <c r="AY66" s="4"/>
+      <c r="AZ66" s="4"/>
+      <c r="BA66" s="4"/>
+      <c r="BB66" s="4"/>
+      <c r="BC66" s="4"/>
+      <c r="BD66" s="4"/>
+      <c r="BE66" s="4"/>
+      <c r="BF66" s="4"/>
+      <c r="BG66" s="4"/>
+      <c r="BH66" s="4"/>
+      <c r="BI66" s="4"/>
+      <c r="BJ66" s="4"/>
+      <c r="BK66" s="4"/>
+      <c r="BL66" s="4"/>
+      <c r="BM66" s="4"/>
+      <c r="BN66" s="4"/>
+      <c r="BO66" s="4"/>
+      <c r="BP66" s="4"/>
+      <c r="BQ66" s="4"/>
+      <c r="BR66" s="4"/>
+      <c r="BS66" s="4"/>
+      <c r="BT66" s="4"/>
+      <c r="BU66" s="4"/>
+      <c r="BV66" s="4"/>
+      <c r="BW66" s="4"/>
+      <c r="BX66" s="4"/>
+      <c r="BY66" s="4"/>
+      <c r="BZ66" s="4"/>
+      <c r="CA66" s="4"/>
+      <c r="CB66" s="4"/>
+      <c r="CC66" s="4"/>
+      <c r="CD66" s="4"/>
+      <c r="CE66" s="4"/>
+      <c r="CF66" s="4"/>
+      <c r="CG66" s="4"/>
+      <c r="CH66" s="4"/>
+      <c r="CI66" s="4"/>
+      <c r="CJ66" s="4"/>
+      <c r="CK66" s="4"/>
+      <c r="CL66" s="4"/>
+      <c r="CM66" s="4"/>
+      <c r="CN66" s="4"/>
+      <c r="CO66" s="4"/>
+      <c r="CP66" s="4"/>
+      <c r="CQ66" s="4"/>
+      <c r="CR66" s="4"/>
+      <c r="CS66" s="4"/>
+      <c r="CT66" s="4"/>
+      <c r="CU66" s="4"/>
+      <c r="CV66" s="4"/>
+      <c r="CW66" s="4"/>
+      <c r="CX66" s="4"/>
+      <c r="CY66" s="4"/>
+      <c r="CZ66" s="4"/>
+      <c r="DA66" s="4"/>
+      <c r="DB66" s="4"/>
+      <c r="DC66" s="4"/>
+      <c r="DD66" s="4"/>
+      <c r="DE66" s="4"/>
+      <c r="DF66" s="4"/>
+      <c r="DG66" s="4"/>
+      <c r="DH66" s="4"/>
+      <c r="DI66" s="4"/>
+      <c r="DJ66" s="4"/>
+      <c r="DK66" s="4"/>
+      <c r="DL66" s="4"/>
+      <c r="DM66" s="4"/>
+      <c r="DN66" s="4"/>
+      <c r="DO66" s="4"/>
+      <c r="DP66" s="4"/>
+      <c r="DQ66" s="4"/>
+      <c r="DR66" s="4"/>
+      <c r="DS66" s="4"/>
+      <c r="DT66" s="4"/>
+      <c r="DU66" s="14"/>
+    </row>
+    <row r="67" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="6"/>
+      <c r="AK67" s="6"/>
+      <c r="AL67" s="6"/>
+      <c r="AM67" s="6"/>
+      <c r="AN67" s="6"/>
+      <c r="AO67" s="4"/>
+      <c r="AP67" s="4"/>
+      <c r="AQ67" s="4"/>
+      <c r="AR67" s="4"/>
+      <c r="AS67" s="4"/>
+      <c r="AT67" s="4"/>
+      <c r="AU67" s="4"/>
+      <c r="AV67" s="4"/>
+      <c r="AW67" s="4"/>
+      <c r="AX67" s="4"/>
+      <c r="AY67" s="4"/>
+      <c r="AZ67" s="4"/>
+      <c r="BA67" s="4"/>
+      <c r="BB67" s="4"/>
+      <c r="BC67" s="4"/>
+      <c r="BD67" s="4"/>
+      <c r="BE67" s="4"/>
+      <c r="BF67" s="4"/>
+      <c r="BG67" s="4"/>
+      <c r="BH67" s="4"/>
+      <c r="BI67" s="4"/>
+      <c r="BJ67" s="4"/>
+      <c r="BK67" s="4"/>
+      <c r="BL67" s="4"/>
+      <c r="BM67" s="4"/>
+      <c r="BN67" s="4"/>
+      <c r="BO67" s="4"/>
+      <c r="BP67" s="4"/>
+      <c r="BQ67" s="4"/>
+      <c r="BR67" s="4"/>
+      <c r="BS67" s="4"/>
+      <c r="BT67" s="4"/>
+      <c r="BU67" s="4"/>
+      <c r="BV67" s="4"/>
+      <c r="BW67" s="4"/>
+      <c r="BX67" s="4"/>
+      <c r="BY67" s="4"/>
+      <c r="BZ67" s="4"/>
+      <c r="CA67" s="4"/>
+      <c r="CB67" s="4"/>
+      <c r="CC67" s="4"/>
+      <c r="CD67" s="4"/>
+      <c r="CE67" s="4"/>
+      <c r="CF67" s="4"/>
+      <c r="CG67" s="4"/>
+      <c r="CH67" s="4"/>
+      <c r="CI67" s="4"/>
+      <c r="CJ67" s="4"/>
+      <c r="CK67" s="4"/>
+      <c r="CL67" s="4"/>
+      <c r="CM67" s="4"/>
+      <c r="CN67" s="4"/>
+      <c r="CO67" s="4"/>
+      <c r="CP67" s="4"/>
+      <c r="CQ67" s="4"/>
+      <c r="CR67" s="4"/>
+      <c r="CS67" s="4"/>
+      <c r="CT67" s="4"/>
+      <c r="CU67" s="4"/>
+      <c r="CV67" s="4"/>
+      <c r="CW67" s="4"/>
+      <c r="CX67" s="4"/>
+      <c r="CY67" s="4"/>
+      <c r="CZ67" s="4"/>
+      <c r="DA67" s="4"/>
+      <c r="DB67" s="4"/>
+      <c r="DC67" s="4"/>
+      <c r="DD67" s="4"/>
+      <c r="DE67" s="4"/>
+      <c r="DF67" s="4"/>
+      <c r="DG67" s="4"/>
+      <c r="DH67" s="4"/>
+      <c r="DI67" s="4"/>
+      <c r="DJ67" s="4"/>
+      <c r="DK67" s="4"/>
+      <c r="DL67" s="4"/>
+      <c r="DM67" s="4"/>
+      <c r="DN67" s="4"/>
+      <c r="DO67" s="4"/>
+      <c r="DP67" s="4"/>
+      <c r="DQ67" s="4"/>
+      <c r="DR67" s="4"/>
+      <c r="DS67" s="4"/>
+      <c r="DT67" s="4"/>
+      <c r="DU67" s="14"/>
+    </row>
+    <row r="68" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="6"/>
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="6"/>
+      <c r="AJ68" s="6"/>
+      <c r="AK68" s="6"/>
+      <c r="AL68" s="6"/>
+      <c r="AM68" s="6"/>
+      <c r="AN68" s="6"/>
+      <c r="AO68" s="4"/>
+      <c r="AP68" s="4"/>
+      <c r="AQ68" s="4"/>
+      <c r="AR68" s="4"/>
+      <c r="AS68" s="4"/>
+      <c r="AT68" s="4"/>
+      <c r="AU68" s="4"/>
+      <c r="AV68" s="4"/>
+      <c r="AW68" s="4"/>
+      <c r="AX68" s="4"/>
+      <c r="AY68" s="4"/>
+      <c r="AZ68" s="4"/>
+      <c r="BA68" s="4"/>
+      <c r="BB68" s="4"/>
+      <c r="BC68" s="4"/>
+      <c r="BD68" s="4"/>
+      <c r="BE68" s="4"/>
+      <c r="BF68" s="4"/>
+      <c r="BG68" s="4"/>
+      <c r="BH68" s="4"/>
+      <c r="BI68" s="4"/>
+      <c r="BJ68" s="4"/>
+      <c r="BK68" s="4"/>
+      <c r="BL68" s="4"/>
+      <c r="BM68" s="4"/>
+      <c r="BN68" s="4"/>
+      <c r="BO68" s="4"/>
+      <c r="BP68" s="4"/>
+      <c r="BQ68" s="4"/>
+      <c r="BR68" s="4"/>
+      <c r="BS68" s="4"/>
+      <c r="BT68" s="4"/>
+      <c r="BU68" s="4"/>
+      <c r="BV68" s="4"/>
+      <c r="BW68" s="4"/>
+      <c r="BX68" s="4"/>
+      <c r="BY68" s="4"/>
+      <c r="BZ68" s="4"/>
+      <c r="CA68" s="4"/>
+      <c r="CB68" s="4"/>
+      <c r="CC68" s="4"/>
+      <c r="CD68" s="4"/>
+      <c r="CE68" s="4"/>
+      <c r="CF68" s="4"/>
+      <c r="CG68" s="4"/>
+      <c r="CH68" s="4"/>
+      <c r="CI68" s="4"/>
+      <c r="CJ68" s="4"/>
+      <c r="CK68" s="4"/>
+      <c r="CL68" s="4"/>
+      <c r="CM68" s="4"/>
+      <c r="CN68" s="4"/>
+      <c r="CO68" s="4"/>
+      <c r="CP68" s="4"/>
+      <c r="CQ68" s="4"/>
+      <c r="CR68" s="4"/>
+      <c r="CS68" s="4"/>
+      <c r="CT68" s="4"/>
+      <c r="CU68" s="4"/>
+      <c r="CV68" s="4"/>
+      <c r="CW68" s="4"/>
+      <c r="CX68" s="4"/>
+      <c r="CY68" s="4"/>
+      <c r="CZ68" s="4"/>
+      <c r="DA68" s="4"/>
+      <c r="DB68" s="4"/>
+      <c r="DC68" s="4"/>
+      <c r="DD68" s="4"/>
+      <c r="DE68" s="4"/>
+      <c r="DF68" s="4"/>
+      <c r="DG68" s="4"/>
+      <c r="DH68" s="4"/>
+      <c r="DI68" s="4"/>
+      <c r="DJ68" s="4"/>
+      <c r="DK68" s="4"/>
+      <c r="DL68" s="4"/>
+      <c r="DM68" s="4"/>
+      <c r="DN68" s="4"/>
+      <c r="DO68" s="4"/>
+      <c r="DP68" s="4"/>
+      <c r="DQ68" s="4"/>
+      <c r="DR68" s="4"/>
+      <c r="DS68" s="4"/>
+      <c r="DT68" s="4"/>
+      <c r="DU68" s="14"/>
+    </row>
+    <row r="69" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6"/>
+      <c r="AL69" s="6"/>
+      <c r="AM69" s="6"/>
+      <c r="AN69" s="6"/>
+      <c r="AO69" s="4"/>
+      <c r="AP69" s="4"/>
+      <c r="AQ69" s="4"/>
+      <c r="AR69" s="4"/>
+      <c r="AS69" s="4"/>
+      <c r="AT69" s="4"/>
+      <c r="AU69" s="4"/>
+      <c r="AV69" s="4"/>
+      <c r="AW69" s="4"/>
+      <c r="AX69" s="4"/>
+      <c r="AY69" s="4"/>
+      <c r="AZ69" s="4"/>
+      <c r="BA69" s="4"/>
+      <c r="BB69" s="4"/>
+      <c r="BC69" s="4"/>
+      <c r="BD69" s="4"/>
+      <c r="BE69" s="4"/>
+      <c r="BF69" s="4"/>
+      <c r="BG69" s="4"/>
+      <c r="BH69" s="4"/>
+      <c r="BI69" s="4"/>
+      <c r="BJ69" s="4"/>
+      <c r="BK69" s="4"/>
+      <c r="BL69" s="4"/>
+      <c r="BM69" s="4"/>
+      <c r="BN69" s="4"/>
+      <c r="BO69" s="4"/>
+      <c r="BP69" s="4"/>
+      <c r="BQ69" s="4"/>
+      <c r="BR69" s="4"/>
+      <c r="BS69" s="4"/>
+      <c r="BT69" s="4"/>
+      <c r="BU69" s="4"/>
+      <c r="BV69" s="4"/>
+      <c r="BW69" s="4"/>
+      <c r="BX69" s="4"/>
+      <c r="BY69" s="4"/>
+      <c r="BZ69" s="4"/>
+      <c r="CA69" s="4"/>
+      <c r="CB69" s="4"/>
+      <c r="CC69" s="4"/>
+      <c r="CD69" s="4"/>
+      <c r="CE69" s="4"/>
+      <c r="CF69" s="4"/>
+      <c r="CG69" s="4"/>
+      <c r="CH69" s="4"/>
+      <c r="CI69" s="4"/>
+      <c r="CJ69" s="4"/>
+      <c r="CK69" s="4"/>
+      <c r="CL69" s="4"/>
+      <c r="CM69" s="4"/>
+      <c r="CN69" s="4"/>
+      <c r="CO69" s="4"/>
+      <c r="CP69" s="4"/>
+      <c r="CQ69" s="4"/>
+      <c r="CR69" s="4"/>
+      <c r="CS69" s="4"/>
+      <c r="CT69" s="4"/>
+      <c r="CU69" s="4"/>
+      <c r="CV69" s="4"/>
+      <c r="CW69" s="4"/>
+      <c r="CX69" s="4"/>
+      <c r="CY69" s="4"/>
+      <c r="CZ69" s="4"/>
+      <c r="DA69" s="4"/>
+      <c r="DB69" s="4"/>
+      <c r="DC69" s="4"/>
+      <c r="DD69" s="4"/>
+      <c r="DE69" s="4"/>
+      <c r="DF69" s="4"/>
+      <c r="DG69" s="4"/>
+      <c r="DH69" s="4"/>
+      <c r="DI69" s="4"/>
+      <c r="DJ69" s="4"/>
+      <c r="DK69" s="4"/>
+      <c r="DL69" s="4"/>
+      <c r="DM69" s="4"/>
+      <c r="DN69" s="4"/>
+      <c r="DO69" s="4"/>
+      <c r="DP69" s="4"/>
+      <c r="DQ69" s="4"/>
+      <c r="DR69" s="4"/>
+      <c r="DS69" s="4"/>
+      <c r="DT69" s="4"/>
+      <c r="DU69" s="14"/>
+    </row>
+    <row r="70" spans="1:125" x14ac:dyDescent="0.4">
+      <c r="F70" s="7"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="6"/>
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="6"/>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6"/>
+      <c r="AI70" s="6"/>
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="6"/>
+      <c r="AL70" s="6"/>
+      <c r="AM70" s="6"/>
+      <c r="AN70" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}"/>
-  <mergeCells count="5">
+  <autoFilter ref="A1:D3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AO4:DU64 F4:AN65">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>AND(F$2&gt;=$C4,E&amp;2&lt;=$F4)</formula>
+  <conditionalFormatting sqref="AO4:DU69 F4:AN70">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(F$2&gt;=$B4,E&amp;2&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:DU64">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND(F$2&gt;=$C4,F$2&lt;=$D4)</formula>
+  <conditionalFormatting sqref="F4:DU69">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(F$2&gt;=$B4,F$2&lt;=$C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10140,8 +10974,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{833B840C-C56B-4CE1-99AB-1A57299583A7}">
-            <xm:f>$E4 =設定!$B$4</xm:f>
+          <x14:cfRule type="expression" priority="1" id="{2289BA30-B69D-472F-96FD-E7DCCD84F22B}">
+            <xm:f>設定!$D$1&gt;=F$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F4:DU69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{833B840C-C56B-4CE1-99AB-1A57299583A7}">
+            <xm:f>$D4 =設定!$B$4</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="darkGrid">
@@ -10157,7 +11004,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E65</xm:sqref>
+          <xm:sqref>A4:E70</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10167,7 +11014,7 @@
           <x14:formula1>
             <xm:f>設定!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E65</xm:sqref>
+          <xm:sqref>D4:E70</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10177,42 +11024,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3D833E-1801-421E-A49D-475E92E09F59}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D1" s="22">
+        <f ca="1">TODAY()</f>
+        <v>44502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>44501</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDED917-2C46-4533-8384-0FFD8C7354B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D385B7-8BE5-4B02-B917-221DBCEAA399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
@@ -866,7 +866,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+      <selection pane="topRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2598,7 +2598,7 @@
         <v>44507</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12"/>
       <c r="G5" s="6"/>
@@ -2732,7 +2732,7 @@
         <v>44507</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="12"/>
       <c r="G6" s="6"/>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="D1" s="22">
         <f ca="1">TODAY()</f>
-        <v>44502</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -11074,6 +11074,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004302F2D77EE64E478C60EF5F0F5269A4" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ea455938686a56006572c2c38cacaea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71640177-36f4-4fe3-8ab8-fd1fb7d60170" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05b37b0ac82d12c9365622fdb5a02a83" ns3:_="">
     <xsd:import namespace="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
@@ -11205,22 +11220,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11236,28 +11260,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D385B7-8BE5-4B02-B917-221DBCEAA399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1782B40-5602-4E06-805C-80536B09D237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
@@ -492,7 +492,7 @@
     <cellStyle name="40% - アクセント 6" xfId="1" builtinId="51"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="darkGrid">
@@ -506,13 +506,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -866,7 +859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+      <selection pane="topRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10956,15 +10949,15 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AO4:DU69 F4:AN70">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(F$2&gt;=$B4,E&amp;2&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:DU69">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(F$2&gt;=$B4,F$2&lt;=$C4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10973,19 +10966,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{2289BA30-B69D-472F-96FD-E7DCCD84F22B}">
-            <xm:f>設定!$D$1&gt;=F$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F4:DU69</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="11" id="{833B840C-C56B-4CE1-99AB-1A57299583A7}">
             <xm:f>$D4 =設定!$B$4</xm:f>
@@ -11046,7 +11026,7 @@
       </c>
       <c r="D1" s="22">
         <f ca="1">TODAY()</f>
-        <v>44503</v>
+        <v>44505</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -11074,21 +11054,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004302F2D77EE64E478C60EF5F0F5269A4" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ea455938686a56006572c2c38cacaea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71640177-36f4-4fe3-8ab8-fd1fb7d60170" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05b37b0ac82d12c9365622fdb5a02a83" ns3:_="">
     <xsd:import namespace="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
@@ -11220,31 +11185,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11260,4 +11216,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1782B40-5602-4E06-805C-80536B09D237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952908BD-0184-4399-8DB8-884865C394BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -151,22 +151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スキルを使用している間、出現し続ける</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーが射程範囲内に入ったら、弾を撃つ</t>
     <rPh sb="6" eb="8">
       <t>シャテイ</t>
@@ -209,6 +193,13 @@
     <t>作業バッファ</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルエフェクトを見えるようにする</t>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -859,7 +850,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N10" sqref="N10"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2716,7 +2707,7 @@
     </row>
     <row r="6" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12">
         <v>44504</v>
@@ -2725,7 +2716,7 @@
         <v>44507</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="12"/>
       <c r="G6" s="6"/>
@@ -2850,7 +2841,7 @@
     </row>
     <row r="7" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="12">
         <v>44506</v>
@@ -2984,7 +2975,7 @@
     </row>
     <row r="8" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="12">
         <v>44506</v>
@@ -3118,7 +3109,7 @@
     </row>
     <row r="9" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="12">
         <v>44513</v>
@@ -3522,7 +3513,7 @@
     </row>
     <row r="12" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="12">
         <v>44523</v>
@@ -3657,7 +3648,7 @@
     </row>
     <row r="13" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="12">
         <v>44529</v>
@@ -11026,7 +11017,7 @@
       </c>
       <c r="D1" s="22">
         <f ca="1">TODAY()</f>
-        <v>44505</v>
+        <v>44507</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -11054,6 +11045,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004302F2D77EE64E478C60EF5F0F5269A4" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ea455938686a56006572c2c38cacaea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71640177-36f4-4fe3-8ab8-fd1fb7d60170" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05b37b0ac82d12c9365622fdb5a02a83" ns3:_="">
     <xsd:import namespace="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
@@ -11185,22 +11191,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11216,28 +11231,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952908BD-0184-4399-8DB8-884865C394BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33BB06E-A966-47BC-8BF7-E01A05856084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
@@ -850,7 +850,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2850,7 +2850,7 @@
         <v>44507</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" s="12"/>
       <c r="G7" s="6"/>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="D1" s="22">
         <f ca="1">TODAY()</f>
-        <v>44507</v>
+        <v>44509</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -11045,21 +11045,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004302F2D77EE64E478C60EF5F0F5269A4" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ea455938686a56006572c2c38cacaea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71640177-36f4-4fe3-8ab8-fd1fb7d60170" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05b37b0ac82d12c9365622fdb5a02a83" ns3:_="">
     <xsd:import namespace="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
@@ -11191,31 +11176,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11231,4 +11207,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33BB06E-A966-47BC-8BF7-E01A05856084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD278AC-6D7D-46F6-AD79-7A927AEC9022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -200,6 +200,16 @@
     <t>スキルエフェクトを見えるようにする</t>
     <rPh sb="9" eb="10">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視錐台カリングを導入する</t>
+    <rPh sb="0" eb="3">
+      <t>シスイダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -390,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,6 +474,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -846,11 +859,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}">
-  <dimension ref="A1:FC70"/>
+  <dimension ref="A1:FC71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -866,16 +879,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="20"/>
@@ -1395,10 +1408,10 @@
       <c r="FC1" s="8"/>
     </row>
     <row r="2" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="20"/>
       <c r="F2" s="16">
         <f>F1</f>
@@ -1916,10 +1929,10 @@
       <c r="FC2" s="9"/>
     </row>
     <row r="3" spans="1:159" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="28"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="21"/>
       <c r="F3" s="17">
         <f>F2</f>
@@ -3108,14 +3121,14 @@
       <c r="DU8" s="13"/>
     </row>
     <row r="9" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="20" t="s">
-        <v>15</v>
+      <c r="A9" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="12">
-        <v>44513</v>
+        <v>44510</v>
       </c>
       <c r="C9" s="12">
-        <v>44515</v>
+        <v>44481</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>5</v>
@@ -3241,21 +3254,20 @@
       <c r="DT9" s="6"/>
       <c r="DU9" s="13"/>
     </row>
-    <row r="10" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
+    <row r="10" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="12">
-        <v>44516</v>
+        <v>44513</v>
       </c>
       <c r="C10" s="12">
-        <v>44518</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>44515</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="12"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -3290,101 +3302,101 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
       <c r="AN10" s="6"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
-      <c r="BF10" s="4"/>
-      <c r="BG10" s="4"/>
-      <c r="BH10" s="4"/>
-      <c r="BI10" s="4"/>
-      <c r="BJ10" s="4"/>
-      <c r="BK10" s="4"/>
-      <c r="BL10" s="4"/>
-      <c r="BM10" s="4"/>
-      <c r="BN10" s="4"/>
-      <c r="BO10" s="4"/>
-      <c r="BP10" s="4"/>
-      <c r="BQ10" s="4"/>
-      <c r="BR10" s="4"/>
-      <c r="BS10" s="4"/>
-      <c r="BT10" s="4"/>
-      <c r="BU10" s="4"/>
-      <c r="BV10" s="4"/>
-      <c r="BW10" s="4"/>
-      <c r="BX10" s="4"/>
-      <c r="BY10" s="4"/>
-      <c r="BZ10" s="4"/>
-      <c r="CA10" s="4"/>
-      <c r="CB10" s="4"/>
-      <c r="CC10" s="4"/>
-      <c r="CD10" s="4"/>
-      <c r="CE10" s="4"/>
-      <c r="CF10" s="4"/>
-      <c r="CG10" s="4"/>
-      <c r="CH10" s="4"/>
-      <c r="CI10" s="4"/>
-      <c r="CJ10" s="4"/>
-      <c r="CK10" s="4"/>
-      <c r="CL10" s="4"/>
-      <c r="CM10" s="4"/>
-      <c r="CN10" s="4"/>
-      <c r="CO10" s="4"/>
-      <c r="CP10" s="4"/>
-      <c r="CQ10" s="4"/>
-      <c r="CR10" s="4"/>
-      <c r="CS10" s="4"/>
-      <c r="CT10" s="4"/>
-      <c r="CU10" s="4"/>
-      <c r="CV10" s="4"/>
-      <c r="CW10" s="4"/>
-      <c r="CX10" s="4"/>
-      <c r="CY10" s="4"/>
-      <c r="CZ10" s="4"/>
-      <c r="DA10" s="4"/>
-      <c r="DB10" s="4"/>
-      <c r="DC10" s="4"/>
-      <c r="DD10" s="4"/>
-      <c r="DE10" s="4"/>
-      <c r="DF10" s="4"/>
-      <c r="DG10" s="4"/>
-      <c r="DH10" s="4"/>
-      <c r="DI10" s="4"/>
-      <c r="DJ10" s="4"/>
-      <c r="DK10" s="4"/>
-      <c r="DL10" s="4"/>
-      <c r="DM10" s="4"/>
-      <c r="DN10" s="4"/>
-      <c r="DO10" s="4"/>
-      <c r="DP10" s="4"/>
-      <c r="DQ10" s="4"/>
-      <c r="DR10" s="4"/>
-      <c r="DS10" s="4"/>
-      <c r="DT10" s="4"/>
-      <c r="DU10" s="14"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="6"/>
+      <c r="BL10" s="6"/>
+      <c r="BM10" s="6"/>
+      <c r="BN10" s="6"/>
+      <c r="BO10" s="6"/>
+      <c r="BP10" s="6"/>
+      <c r="BQ10" s="6"/>
+      <c r="BR10" s="6"/>
+      <c r="BS10" s="6"/>
+      <c r="BT10" s="6"/>
+      <c r="BU10" s="6"/>
+      <c r="BV10" s="6"/>
+      <c r="BW10" s="6"/>
+      <c r="BX10" s="6"/>
+      <c r="BY10" s="6"/>
+      <c r="BZ10" s="6"/>
+      <c r="CA10" s="6"/>
+      <c r="CB10" s="6"/>
+      <c r="CC10" s="6"/>
+      <c r="CD10" s="6"/>
+      <c r="CE10" s="6"/>
+      <c r="CF10" s="6"/>
+      <c r="CG10" s="6"/>
+      <c r="CH10" s="6"/>
+      <c r="CI10" s="6"/>
+      <c r="CJ10" s="6"/>
+      <c r="CK10" s="6"/>
+      <c r="CL10" s="6"/>
+      <c r="CM10" s="6"/>
+      <c r="CN10" s="6"/>
+      <c r="CO10" s="6"/>
+      <c r="CP10" s="6"/>
+      <c r="CQ10" s="6"/>
+      <c r="CR10" s="6"/>
+      <c r="CS10" s="6"/>
+      <c r="CT10" s="6"/>
+      <c r="CU10" s="6"/>
+      <c r="CV10" s="6"/>
+      <c r="CW10" s="6"/>
+      <c r="CX10" s="6"/>
+      <c r="CY10" s="6"/>
+      <c r="CZ10" s="6"/>
+      <c r="DA10" s="6"/>
+      <c r="DB10" s="6"/>
+      <c r="DC10" s="6"/>
+      <c r="DD10" s="6"/>
+      <c r="DE10" s="6"/>
+      <c r="DF10" s="6"/>
+      <c r="DG10" s="6"/>
+      <c r="DH10" s="6"/>
+      <c r="DI10" s="6"/>
+      <c r="DJ10" s="6"/>
+      <c r="DK10" s="6"/>
+      <c r="DL10" s="6"/>
+      <c r="DM10" s="6"/>
+      <c r="DN10" s="6"/>
+      <c r="DO10" s="6"/>
+      <c r="DP10" s="6"/>
+      <c r="DQ10" s="6"/>
+      <c r="DR10" s="6"/>
+      <c r="DS10" s="6"/>
+      <c r="DT10" s="6"/>
+      <c r="DU10" s="13"/>
     </row>
     <row r="11" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="12">
-        <v>44519</v>
+        <v>44516</v>
       </c>
       <c r="C11" s="12">
-        <v>44522</v>
+        <v>44518</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
@@ -3513,13 +3525,13 @@
     </row>
     <row r="12" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="12">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="C12" s="12">
-        <v>44528</v>
+        <v>44522</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
@@ -3648,13 +3660,13 @@
     </row>
     <row r="13" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="12">
-        <v>44529</v>
+        <v>44523</v>
       </c>
       <c r="C13" s="12">
-        <v>44530</v>
+        <v>44528</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
@@ -3782,10 +3794,18 @@
       <c r="DU13" s="14"/>
     </row>
     <row r="14" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C14" s="12">
+        <v>44530</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E14" s="20"/>
       <c r="F14" s="7"/>
       <c r="G14" s="6"/>
@@ -10893,7 +10913,12 @@
       <c r="DT69" s="4"/>
       <c r="DU69" s="14"/>
     </row>
-    <row r="70" spans="1:125" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="20"/>
       <c r="F70" s="7"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -10929,6 +10954,128 @@
       <c r="AL70" s="6"/>
       <c r="AM70" s="6"/>
       <c r="AN70" s="6"/>
+      <c r="AO70" s="4"/>
+      <c r="AP70" s="4"/>
+      <c r="AQ70" s="4"/>
+      <c r="AR70" s="4"/>
+      <c r="AS70" s="4"/>
+      <c r="AT70" s="4"/>
+      <c r="AU70" s="4"/>
+      <c r="AV70" s="4"/>
+      <c r="AW70" s="4"/>
+      <c r="AX70" s="4"/>
+      <c r="AY70" s="4"/>
+      <c r="AZ70" s="4"/>
+      <c r="BA70" s="4"/>
+      <c r="BB70" s="4"/>
+      <c r="BC70" s="4"/>
+      <c r="BD70" s="4"/>
+      <c r="BE70" s="4"/>
+      <c r="BF70" s="4"/>
+      <c r="BG70" s="4"/>
+      <c r="BH70" s="4"/>
+      <c r="BI70" s="4"/>
+      <c r="BJ70" s="4"/>
+      <c r="BK70" s="4"/>
+      <c r="BL70" s="4"/>
+      <c r="BM70" s="4"/>
+      <c r="BN70" s="4"/>
+      <c r="BO70" s="4"/>
+      <c r="BP70" s="4"/>
+      <c r="BQ70" s="4"/>
+      <c r="BR70" s="4"/>
+      <c r="BS70" s="4"/>
+      <c r="BT70" s="4"/>
+      <c r="BU70" s="4"/>
+      <c r="BV70" s="4"/>
+      <c r="BW70" s="4"/>
+      <c r="BX70" s="4"/>
+      <c r="BY70" s="4"/>
+      <c r="BZ70" s="4"/>
+      <c r="CA70" s="4"/>
+      <c r="CB70" s="4"/>
+      <c r="CC70" s="4"/>
+      <c r="CD70" s="4"/>
+      <c r="CE70" s="4"/>
+      <c r="CF70" s="4"/>
+      <c r="CG70" s="4"/>
+      <c r="CH70" s="4"/>
+      <c r="CI70" s="4"/>
+      <c r="CJ70" s="4"/>
+      <c r="CK70" s="4"/>
+      <c r="CL70" s="4"/>
+      <c r="CM70" s="4"/>
+      <c r="CN70" s="4"/>
+      <c r="CO70" s="4"/>
+      <c r="CP70" s="4"/>
+      <c r="CQ70" s="4"/>
+      <c r="CR70" s="4"/>
+      <c r="CS70" s="4"/>
+      <c r="CT70" s="4"/>
+      <c r="CU70" s="4"/>
+      <c r="CV70" s="4"/>
+      <c r="CW70" s="4"/>
+      <c r="CX70" s="4"/>
+      <c r="CY70" s="4"/>
+      <c r="CZ70" s="4"/>
+      <c r="DA70" s="4"/>
+      <c r="DB70" s="4"/>
+      <c r="DC70" s="4"/>
+      <c r="DD70" s="4"/>
+      <c r="DE70" s="4"/>
+      <c r="DF70" s="4"/>
+      <c r="DG70" s="4"/>
+      <c r="DH70" s="4"/>
+      <c r="DI70" s="4"/>
+      <c r="DJ70" s="4"/>
+      <c r="DK70" s="4"/>
+      <c r="DL70" s="4"/>
+      <c r="DM70" s="4"/>
+      <c r="DN70" s="4"/>
+      <c r="DO70" s="4"/>
+      <c r="DP70" s="4"/>
+      <c r="DQ70" s="4"/>
+      <c r="DR70" s="4"/>
+      <c r="DS70" s="4"/>
+      <c r="DT70" s="4"/>
+      <c r="DU70" s="14"/>
+    </row>
+    <row r="71" spans="1:125" x14ac:dyDescent="0.4">
+      <c r="F71" s="7"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="6"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="6"/>
+      <c r="AJ71" s="6"/>
+      <c r="AK71" s="6"/>
+      <c r="AL71" s="6"/>
+      <c r="AM71" s="6"/>
+      <c r="AN71" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}"/>
@@ -10939,7 +11086,7 @@
     <mergeCell ref="D1:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AO4:DU69 F4:AN70">
+  <conditionalFormatting sqref="AO4:DU70 F4:AN71">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(F$2&gt;=$B4,E&amp;2&lt;=$F4)</formula>
     </cfRule>
@@ -10947,7 +11094,7 @@
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:DU69">
+  <conditionalFormatting sqref="F4:DU70">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(F$2&gt;=$B4,F$2&lt;=$C4)</formula>
     </cfRule>
@@ -10975,7 +11122,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E70</xm:sqref>
+          <xm:sqref>A4:E71</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10985,7 +11132,7 @@
           <x14:formula1>
             <xm:f>設定!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:E70</xm:sqref>
+          <xm:sqref>D4:E71</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD278AC-6D7D-46F6-AD79-7A927AEC9022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A096FE3E-9151-4049-880F-AEE58B4EC213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -213,6 +213,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>シェーダーを追加してみる</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -248,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -392,15 +405,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +498,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,12 +510,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - アクセント 1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - アクセント 6" xfId="1" builtinId="51"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGrid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="4"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="darkGrid">
@@ -859,18 +934,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}">
-  <dimension ref="A1:FC71"/>
+  <dimension ref="A1:FC72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="46.75" style="5" customWidth="1"/>
     <col min="2" max="4" width="13.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="1" style="20" customWidth="1"/>
+    <col min="5" max="5" width="0.375" style="20" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="18" customWidth="1"/>
     <col min="7" max="125" width="5.625" style="1" customWidth="1"/>
     <col min="126" max="126" width="5.625" style="18" customWidth="1"/>
@@ -879,16 +954,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="20"/>
@@ -1408,10 +1483,10 @@
       <c r="FC1" s="8"/>
     </row>
     <row r="2" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="20"/>
       <c r="F2" s="16">
         <f>F1</f>
@@ -1929,10 +2004,10 @@
       <c r="FC2" s="9"/>
     </row>
     <row r="3" spans="1:159" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="21"/>
       <c r="F3" s="17">
         <f>F2</f>
@@ -2997,7 +3072,7 @@
         <v>44512</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" s="12"/>
       <c r="G8" s="6"/>
@@ -3131,7 +3206,7 @@
         <v>44481</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" s="12"/>
       <c r="G9" s="6"/>
@@ -3142,9 +3217,9 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -3254,9 +3329,9 @@
       <c r="DT9" s="6"/>
       <c r="DU9" s="13"/>
     </row>
-    <row r="10" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
-        <v>15</v>
+    <row r="10" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="12">
         <v>44513</v>
@@ -3264,10 +3339,11 @@
       <c r="C10" s="12">
         <v>44515</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12"/>
+      <c r="D10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -3302,107 +3378,106 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
       <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="6"/>
-      <c r="BB10" s="6"/>
-      <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="6"/>
-      <c r="BF10" s="6"/>
-      <c r="BG10" s="6"/>
-      <c r="BH10" s="6"/>
-      <c r="BI10" s="6"/>
-      <c r="BJ10" s="6"/>
-      <c r="BK10" s="6"/>
-      <c r="BL10" s="6"/>
-      <c r="BM10" s="6"/>
-      <c r="BN10" s="6"/>
-      <c r="BO10" s="6"/>
-      <c r="BP10" s="6"/>
-      <c r="BQ10" s="6"/>
-      <c r="BR10" s="6"/>
-      <c r="BS10" s="6"/>
-      <c r="BT10" s="6"/>
-      <c r="BU10" s="6"/>
-      <c r="BV10" s="6"/>
-      <c r="BW10" s="6"/>
-      <c r="BX10" s="6"/>
-      <c r="BY10" s="6"/>
-      <c r="BZ10" s="6"/>
-      <c r="CA10" s="6"/>
-      <c r="CB10" s="6"/>
-      <c r="CC10" s="6"/>
-      <c r="CD10" s="6"/>
-      <c r="CE10" s="6"/>
-      <c r="CF10" s="6"/>
-      <c r="CG10" s="6"/>
-      <c r="CH10" s="6"/>
-      <c r="CI10" s="6"/>
-      <c r="CJ10" s="6"/>
-      <c r="CK10" s="6"/>
-      <c r="CL10" s="6"/>
-      <c r="CM10" s="6"/>
-      <c r="CN10" s="6"/>
-      <c r="CO10" s="6"/>
-      <c r="CP10" s="6"/>
-      <c r="CQ10" s="6"/>
-      <c r="CR10" s="6"/>
-      <c r="CS10" s="6"/>
-      <c r="CT10" s="6"/>
-      <c r="CU10" s="6"/>
-      <c r="CV10" s="6"/>
-      <c r="CW10" s="6"/>
-      <c r="CX10" s="6"/>
-      <c r="CY10" s="6"/>
-      <c r="CZ10" s="6"/>
-      <c r="DA10" s="6"/>
-      <c r="DB10" s="6"/>
-      <c r="DC10" s="6"/>
-      <c r="DD10" s="6"/>
-      <c r="DE10" s="6"/>
-      <c r="DF10" s="6"/>
-      <c r="DG10" s="6"/>
-      <c r="DH10" s="6"/>
-      <c r="DI10" s="6"/>
-      <c r="DJ10" s="6"/>
-      <c r="DK10" s="6"/>
-      <c r="DL10" s="6"/>
-      <c r="DM10" s="6"/>
-      <c r="DN10" s="6"/>
-      <c r="DO10" s="6"/>
-      <c r="DP10" s="6"/>
-      <c r="DQ10" s="6"/>
-      <c r="DR10" s="6"/>
-      <c r="DS10" s="6"/>
-      <c r="DT10" s="6"/>
-      <c r="DU10" s="13"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
+      <c r="BR10" s="4"/>
+      <c r="BS10" s="4"/>
+      <c r="BT10" s="4"/>
+      <c r="BU10" s="4"/>
+      <c r="BV10" s="4"/>
+      <c r="BW10" s="4"/>
+      <c r="BX10" s="4"/>
+      <c r="BY10" s="4"/>
+      <c r="BZ10" s="4"/>
+      <c r="CA10" s="4"/>
+      <c r="CB10" s="4"/>
+      <c r="CC10" s="4"/>
+      <c r="CD10" s="4"/>
+      <c r="CE10" s="4"/>
+      <c r="CF10" s="4"/>
+      <c r="CG10" s="4"/>
+      <c r="CH10" s="4"/>
+      <c r="CI10" s="4"/>
+      <c r="CJ10" s="4"/>
+      <c r="CK10" s="4"/>
+      <c r="CL10" s="4"/>
+      <c r="CM10" s="4"/>
+      <c r="CN10" s="4"/>
+      <c r="CO10" s="4"/>
+      <c r="CP10" s="4"/>
+      <c r="CQ10" s="4"/>
+      <c r="CR10" s="4"/>
+      <c r="CS10" s="4"/>
+      <c r="CT10" s="4"/>
+      <c r="CU10" s="4"/>
+      <c r="CV10" s="4"/>
+      <c r="CW10" s="4"/>
+      <c r="CX10" s="4"/>
+      <c r="CY10" s="4"/>
+      <c r="CZ10" s="4"/>
+      <c r="DA10" s="4"/>
+      <c r="DB10" s="4"/>
+      <c r="DC10" s="4"/>
+      <c r="DD10" s="4"/>
+      <c r="DE10" s="4"/>
+      <c r="DF10" s="4"/>
+      <c r="DG10" s="4"/>
+      <c r="DH10" s="4"/>
+      <c r="DI10" s="4"/>
+      <c r="DJ10" s="4"/>
+      <c r="DK10" s="4"/>
+      <c r="DL10" s="4"/>
+      <c r="DM10" s="4"/>
+      <c r="DN10" s="4"/>
+      <c r="DO10" s="4"/>
+      <c r="DP10" s="4"/>
+      <c r="DQ10" s="4"/>
+      <c r="DR10" s="4"/>
+      <c r="DS10" s="4"/>
+      <c r="DT10" s="4"/>
+      <c r="DU10" s="14"/>
     </row>
-    <row r="11" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
+    <row r="11" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="12">
-        <v>44516</v>
+        <v>44513</v>
       </c>
       <c r="C11" s="12">
-        <v>44518</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>44515</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="12"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -3437,101 +3512,101 @@
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="4"/>
-      <c r="BH11" s="4"/>
-      <c r="BI11" s="4"/>
-      <c r="BJ11" s="4"/>
-      <c r="BK11" s="4"/>
-      <c r="BL11" s="4"/>
-      <c r="BM11" s="4"/>
-      <c r="BN11" s="4"/>
-      <c r="BO11" s="4"/>
-      <c r="BP11" s="4"/>
-      <c r="BQ11" s="4"/>
-      <c r="BR11" s="4"/>
-      <c r="BS11" s="4"/>
-      <c r="BT11" s="4"/>
-      <c r="BU11" s="4"/>
-      <c r="BV11" s="4"/>
-      <c r="BW11" s="4"/>
-      <c r="BX11" s="4"/>
-      <c r="BY11" s="4"/>
-      <c r="BZ11" s="4"/>
-      <c r="CA11" s="4"/>
-      <c r="CB11" s="4"/>
-      <c r="CC11" s="4"/>
-      <c r="CD11" s="4"/>
-      <c r="CE11" s="4"/>
-      <c r="CF11" s="4"/>
-      <c r="CG11" s="4"/>
-      <c r="CH11" s="4"/>
-      <c r="CI11" s="4"/>
-      <c r="CJ11" s="4"/>
-      <c r="CK11" s="4"/>
-      <c r="CL11" s="4"/>
-      <c r="CM11" s="4"/>
-      <c r="CN11" s="4"/>
-      <c r="CO11" s="4"/>
-      <c r="CP11" s="4"/>
-      <c r="CQ11" s="4"/>
-      <c r="CR11" s="4"/>
-      <c r="CS11" s="4"/>
-      <c r="CT11" s="4"/>
-      <c r="CU11" s="4"/>
-      <c r="CV11" s="4"/>
-      <c r="CW11" s="4"/>
-      <c r="CX11" s="4"/>
-      <c r="CY11" s="4"/>
-      <c r="CZ11" s="4"/>
-      <c r="DA11" s="4"/>
-      <c r="DB11" s="4"/>
-      <c r="DC11" s="4"/>
-      <c r="DD11" s="4"/>
-      <c r="DE11" s="4"/>
-      <c r="DF11" s="4"/>
-      <c r="DG11" s="4"/>
-      <c r="DH11" s="4"/>
-      <c r="DI11" s="4"/>
-      <c r="DJ11" s="4"/>
-      <c r="DK11" s="4"/>
-      <c r="DL11" s="4"/>
-      <c r="DM11" s="4"/>
-      <c r="DN11" s="4"/>
-      <c r="DO11" s="4"/>
-      <c r="DP11" s="4"/>
-      <c r="DQ11" s="4"/>
-      <c r="DR11" s="4"/>
-      <c r="DS11" s="4"/>
-      <c r="DT11" s="4"/>
-      <c r="DU11" s="14"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
+      <c r="BN11" s="6"/>
+      <c r="BO11" s="6"/>
+      <c r="BP11" s="6"/>
+      <c r="BQ11" s="6"/>
+      <c r="BR11" s="6"/>
+      <c r="BS11" s="6"/>
+      <c r="BT11" s="6"/>
+      <c r="BU11" s="6"/>
+      <c r="BV11" s="6"/>
+      <c r="BW11" s="6"/>
+      <c r="BX11" s="6"/>
+      <c r="BY11" s="6"/>
+      <c r="BZ11" s="6"/>
+      <c r="CA11" s="6"/>
+      <c r="CB11" s="6"/>
+      <c r="CC11" s="6"/>
+      <c r="CD11" s="6"/>
+      <c r="CE11" s="6"/>
+      <c r="CF11" s="6"/>
+      <c r="CG11" s="6"/>
+      <c r="CH11" s="6"/>
+      <c r="CI11" s="6"/>
+      <c r="CJ11" s="6"/>
+      <c r="CK11" s="6"/>
+      <c r="CL11" s="6"/>
+      <c r="CM11" s="6"/>
+      <c r="CN11" s="6"/>
+      <c r="CO11" s="6"/>
+      <c r="CP11" s="6"/>
+      <c r="CQ11" s="6"/>
+      <c r="CR11" s="6"/>
+      <c r="CS11" s="6"/>
+      <c r="CT11" s="6"/>
+      <c r="CU11" s="6"/>
+      <c r="CV11" s="6"/>
+      <c r="CW11" s="6"/>
+      <c r="CX11" s="6"/>
+      <c r="CY11" s="6"/>
+      <c r="CZ11" s="6"/>
+      <c r="DA11" s="6"/>
+      <c r="DB11" s="6"/>
+      <c r="DC11" s="6"/>
+      <c r="DD11" s="6"/>
+      <c r="DE11" s="6"/>
+      <c r="DF11" s="6"/>
+      <c r="DG11" s="6"/>
+      <c r="DH11" s="6"/>
+      <c r="DI11" s="6"/>
+      <c r="DJ11" s="6"/>
+      <c r="DK11" s="6"/>
+      <c r="DL11" s="6"/>
+      <c r="DM11" s="6"/>
+      <c r="DN11" s="6"/>
+      <c r="DO11" s="6"/>
+      <c r="DP11" s="6"/>
+      <c r="DQ11" s="6"/>
+      <c r="DR11" s="6"/>
+      <c r="DS11" s="6"/>
+      <c r="DT11" s="6"/>
+      <c r="DU11" s="13"/>
     </row>
     <row r="12" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>44519</v>
+        <v>44516</v>
       </c>
       <c r="C12" s="12">
-        <v>44522</v>
+        <v>44518</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
@@ -3660,13 +3735,13 @@
     </row>
     <row r="13" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="C13" s="12">
-        <v>44528</v>
+        <v>44522</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
@@ -3795,13 +3870,13 @@
     </row>
     <row r="14" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="12">
-        <v>44529</v>
+        <v>44523</v>
       </c>
       <c r="C14" s="12">
-        <v>44530</v>
+        <v>44528</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
@@ -3929,10 +4004,18 @@
       <c r="DU14" s="14"/>
     </row>
     <row r="15" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C15" s="12">
+        <v>44530</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E15" s="20"/>
       <c r="F15" s="7"/>
       <c r="G15" s="6"/>
@@ -11040,7 +11123,12 @@
       <c r="DT70" s="4"/>
       <c r="DU70" s="14"/>
     </row>
-    <row r="71" spans="1:125" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="20"/>
       <c r="F71" s="7"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -11076,6 +11164,128 @@
       <c r="AL71" s="6"/>
       <c r="AM71" s="6"/>
       <c r="AN71" s="6"/>
+      <c r="AO71" s="4"/>
+      <c r="AP71" s="4"/>
+      <c r="AQ71" s="4"/>
+      <c r="AR71" s="4"/>
+      <c r="AS71" s="4"/>
+      <c r="AT71" s="4"/>
+      <c r="AU71" s="4"/>
+      <c r="AV71" s="4"/>
+      <c r="AW71" s="4"/>
+      <c r="AX71" s="4"/>
+      <c r="AY71" s="4"/>
+      <c r="AZ71" s="4"/>
+      <c r="BA71" s="4"/>
+      <c r="BB71" s="4"/>
+      <c r="BC71" s="4"/>
+      <c r="BD71" s="4"/>
+      <c r="BE71" s="4"/>
+      <c r="BF71" s="4"/>
+      <c r="BG71" s="4"/>
+      <c r="BH71" s="4"/>
+      <c r="BI71" s="4"/>
+      <c r="BJ71" s="4"/>
+      <c r="BK71" s="4"/>
+      <c r="BL71" s="4"/>
+      <c r="BM71" s="4"/>
+      <c r="BN71" s="4"/>
+      <c r="BO71" s="4"/>
+      <c r="BP71" s="4"/>
+      <c r="BQ71" s="4"/>
+      <c r="BR71" s="4"/>
+      <c r="BS71" s="4"/>
+      <c r="BT71" s="4"/>
+      <c r="BU71" s="4"/>
+      <c r="BV71" s="4"/>
+      <c r="BW71" s="4"/>
+      <c r="BX71" s="4"/>
+      <c r="BY71" s="4"/>
+      <c r="BZ71" s="4"/>
+      <c r="CA71" s="4"/>
+      <c r="CB71" s="4"/>
+      <c r="CC71" s="4"/>
+      <c r="CD71" s="4"/>
+      <c r="CE71" s="4"/>
+      <c r="CF71" s="4"/>
+      <c r="CG71" s="4"/>
+      <c r="CH71" s="4"/>
+      <c r="CI71" s="4"/>
+      <c r="CJ71" s="4"/>
+      <c r="CK71" s="4"/>
+      <c r="CL71" s="4"/>
+      <c r="CM71" s="4"/>
+      <c r="CN71" s="4"/>
+      <c r="CO71" s="4"/>
+      <c r="CP71" s="4"/>
+      <c r="CQ71" s="4"/>
+      <c r="CR71" s="4"/>
+      <c r="CS71" s="4"/>
+      <c r="CT71" s="4"/>
+      <c r="CU71" s="4"/>
+      <c r="CV71" s="4"/>
+      <c r="CW71" s="4"/>
+      <c r="CX71" s="4"/>
+      <c r="CY71" s="4"/>
+      <c r="CZ71" s="4"/>
+      <c r="DA71" s="4"/>
+      <c r="DB71" s="4"/>
+      <c r="DC71" s="4"/>
+      <c r="DD71" s="4"/>
+      <c r="DE71" s="4"/>
+      <c r="DF71" s="4"/>
+      <c r="DG71" s="4"/>
+      <c r="DH71" s="4"/>
+      <c r="DI71" s="4"/>
+      <c r="DJ71" s="4"/>
+      <c r="DK71" s="4"/>
+      <c r="DL71" s="4"/>
+      <c r="DM71" s="4"/>
+      <c r="DN71" s="4"/>
+      <c r="DO71" s="4"/>
+      <c r="DP71" s="4"/>
+      <c r="DQ71" s="4"/>
+      <c r="DR71" s="4"/>
+      <c r="DS71" s="4"/>
+      <c r="DT71" s="4"/>
+      <c r="DU71" s="14"/>
+    </row>
+    <row r="72" spans="1:125" x14ac:dyDescent="0.4">
+      <c r="F72" s="7"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="6"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="6"/>
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="6"/>
+      <c r="AF72" s="6"/>
+      <c r="AG72" s="6"/>
+      <c r="AH72" s="6"/>
+      <c r="AI72" s="6"/>
+      <c r="AJ72" s="6"/>
+      <c r="AK72" s="6"/>
+      <c r="AL72" s="6"/>
+      <c r="AM72" s="6"/>
+      <c r="AN72" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}"/>
@@ -11086,17 +11296,30 @@
     <mergeCell ref="D1:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AO4:DU70 F4:AN71">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="F4:DU9 F11:AN72 AO11:DU71">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>AND(F$2&gt;=$B4,E&amp;2&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:DU70">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="F4:DU9 F11:DU71">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND(F$2&gt;=$B4,F$2&lt;=$C4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:DU10">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(F$2&gt;=$B10,E&amp;2&lt;=$F10)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:DU10">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(F$2&gt;=$B10,F$2&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11105,7 +11328,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{833B840C-C56B-4CE1-99AB-1A57299583A7}">
+          <x14:cfRule type="expression" priority="15" id="{833B840C-C56B-4CE1-99AB-1A57299583A7}">
             <xm:f>$D4 =設定!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11122,7 +11345,27 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E71</xm:sqref>
+          <xm:sqref>A4:E9 A11:E72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{01322F23-B3E2-4456-A206-F8D97D759BFC}">
+            <xm:f>$D10 =設定!$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="darkGrid">
+                  <fgColor theme="0" tint="-0.34998626667073579"/>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left/>
+                <right/>
+                <top/>
+                <bottom/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A10:E10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11132,7 +11375,7 @@
           <x14:formula1>
             <xm:f>設定!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:E71</xm:sqref>
+          <xm:sqref>D4:E72</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11164,7 +11407,7 @@
       </c>
       <c r="D1" s="22">
         <f ca="1">TODAY()</f>
-        <v>44509</v>
+        <v>44513</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -11192,6 +11435,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004302F2D77EE64E478C60EF5F0F5269A4" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ea455938686a56006572c2c38cacaea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71640177-36f4-4fe3-8ab8-fd1fb7d60170" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05b37b0ac82d12c9365622fdb5a02a83" ns3:_="">
     <xsd:import namespace="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
@@ -11323,22 +11581,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11354,28 +11621,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A096FE3E-9151-4049-880F-AEE58B4EC213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBB9D12-EBE4-44AF-BF56-2533372F3131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -217,6 +217,13 @@
     <t>シェーダーを追加してみる</t>
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業バッファ→バグチェック</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -498,6 +505,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,9 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - アクセント 1" xfId="2" builtinId="31"/>
@@ -520,6 +527,20 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGrid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="darkGrid">
@@ -571,20 +592,6 @@
           <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGrid">
-          <fgColor theme="0" tint="-0.34998626667073579"/>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -938,7 +945,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -954,16 +961,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="20"/>
@@ -1483,10 +1490,10 @@
       <c r="FC1" s="8"/>
     </row>
     <row r="2" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="20"/>
       <c r="F2" s="16">
         <f>F1</f>
@@ -2004,10 +2011,10 @@
       <c r="FC2" s="9"/>
     </row>
     <row r="3" spans="1:159" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="21"/>
       <c r="F3" s="17">
         <f>F2</f>
@@ -3217,9 +3224,9 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -3340,7 +3347,7 @@
         <v>44515</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="7"/>
@@ -3466,7 +3473,7 @@
     </row>
     <row r="11" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="12">
         <v>44513</v>
@@ -3475,7 +3482,7 @@
         <v>44515</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="12"/>
       <c r="G11" s="6"/>
@@ -11310,15 +11317,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:DU10">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(F$2&gt;=$B10,E&amp;2&lt;=$F10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:DU10">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(F$2&gt;=$B10,F$2&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11407,7 +11414,7 @@
       </c>
       <c r="D1" s="22">
         <f ca="1">TODAY()</f>
-        <v>44513</v>
+        <v>44514</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -11435,21 +11442,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004302F2D77EE64E478C60EF5F0F5269A4" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ea455938686a56006572c2c38cacaea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71640177-36f4-4fe3-8ab8-fd1fb7d60170" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05b37b0ac82d12c9365622fdb5a02a83" ns3:_="">
     <xsd:import namespace="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
@@ -11581,31 +11573,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11621,4 +11604,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBB9D12-EBE4-44AF-BF56-2533372F3131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE60F4-B334-4B8B-A173-BE74908F6922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -224,6 +224,16 @@
     <t>作業バッファ→バグチェック</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージのオブジェクトにも指数台カリングを有効にする</t>
+    <rPh sb="13" eb="16">
+      <t>シスウダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ユウコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -423,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -506,6 +516,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -941,17 +954,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}">
-  <dimension ref="A1:FC72"/>
+  <dimension ref="A1:FC73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="46.75" style="5" customWidth="1"/>
-    <col min="2" max="4" width="13.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="54" style="5" customWidth="1"/>
+    <col min="2" max="3" width="13.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="0.375" style="20" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="18" customWidth="1"/>
     <col min="7" max="125" width="5.625" style="1" customWidth="1"/>
@@ -961,16 +975,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="20"/>
@@ -1490,10 +1504,10 @@
       <c r="FC1" s="8"/>
     </row>
     <row r="2" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="20"/>
       <c r="F2" s="16">
         <f>F1</f>
@@ -2011,10 +2025,10 @@
       <c r="FC2" s="9"/>
     </row>
     <row r="3" spans="1:159" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="21"/>
       <c r="F3" s="17">
         <f>F2</f>
@@ -3482,7 +3496,7 @@
         <v>44515</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="12"/>
       <c r="G11" s="6"/>
@@ -3605,21 +3619,20 @@
       <c r="DT11" s="6"/>
       <c r="DU11" s="13"/>
     </row>
-    <row r="12" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
+    <row r="12" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="12">
-        <v>44516</v>
+        <v>44515</v>
       </c>
       <c r="C12" s="12">
-        <v>44518</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="7"/>
+        <v>44515</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -3654,101 +3667,101 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
-      <c r="BL12" s="4"/>
-      <c r="BM12" s="4"/>
-      <c r="BN12" s="4"/>
-      <c r="BO12" s="4"/>
-      <c r="BP12" s="4"/>
-      <c r="BQ12" s="4"/>
-      <c r="BR12" s="4"/>
-      <c r="BS12" s="4"/>
-      <c r="BT12" s="4"/>
-      <c r="BU12" s="4"/>
-      <c r="BV12" s="4"/>
-      <c r="BW12" s="4"/>
-      <c r="BX12" s="4"/>
-      <c r="BY12" s="4"/>
-      <c r="BZ12" s="4"/>
-      <c r="CA12" s="4"/>
-      <c r="CB12" s="4"/>
-      <c r="CC12" s="4"/>
-      <c r="CD12" s="4"/>
-      <c r="CE12" s="4"/>
-      <c r="CF12" s="4"/>
-      <c r="CG12" s="4"/>
-      <c r="CH12" s="4"/>
-      <c r="CI12" s="4"/>
-      <c r="CJ12" s="4"/>
-      <c r="CK12" s="4"/>
-      <c r="CL12" s="4"/>
-      <c r="CM12" s="4"/>
-      <c r="CN12" s="4"/>
-      <c r="CO12" s="4"/>
-      <c r="CP12" s="4"/>
-      <c r="CQ12" s="4"/>
-      <c r="CR12" s="4"/>
-      <c r="CS12" s="4"/>
-      <c r="CT12" s="4"/>
-      <c r="CU12" s="4"/>
-      <c r="CV12" s="4"/>
-      <c r="CW12" s="4"/>
-      <c r="CX12" s="4"/>
-      <c r="CY12" s="4"/>
-      <c r="CZ12" s="4"/>
-      <c r="DA12" s="4"/>
-      <c r="DB12" s="4"/>
-      <c r="DC12" s="4"/>
-      <c r="DD12" s="4"/>
-      <c r="DE12" s="4"/>
-      <c r="DF12" s="4"/>
-      <c r="DG12" s="4"/>
-      <c r="DH12" s="4"/>
-      <c r="DI12" s="4"/>
-      <c r="DJ12" s="4"/>
-      <c r="DK12" s="4"/>
-      <c r="DL12" s="4"/>
-      <c r="DM12" s="4"/>
-      <c r="DN12" s="4"/>
-      <c r="DO12" s="4"/>
-      <c r="DP12" s="4"/>
-      <c r="DQ12" s="4"/>
-      <c r="DR12" s="4"/>
-      <c r="DS12" s="4"/>
-      <c r="DT12" s="4"/>
-      <c r="DU12" s="14"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="6"/>
+      <c r="BN12" s="6"/>
+      <c r="BO12" s="6"/>
+      <c r="BP12" s="6"/>
+      <c r="BQ12" s="6"/>
+      <c r="BR12" s="6"/>
+      <c r="BS12" s="6"/>
+      <c r="BT12" s="6"/>
+      <c r="BU12" s="6"/>
+      <c r="BV12" s="6"/>
+      <c r="BW12" s="6"/>
+      <c r="BX12" s="6"/>
+      <c r="BY12" s="6"/>
+      <c r="BZ12" s="6"/>
+      <c r="CA12" s="6"/>
+      <c r="CB12" s="6"/>
+      <c r="CC12" s="6"/>
+      <c r="CD12" s="6"/>
+      <c r="CE12" s="6"/>
+      <c r="CF12" s="6"/>
+      <c r="CG12" s="6"/>
+      <c r="CH12" s="6"/>
+      <c r="CI12" s="6"/>
+      <c r="CJ12" s="6"/>
+      <c r="CK12" s="6"/>
+      <c r="CL12" s="6"/>
+      <c r="CM12" s="6"/>
+      <c r="CN12" s="6"/>
+      <c r="CO12" s="6"/>
+      <c r="CP12" s="6"/>
+      <c r="CQ12" s="6"/>
+      <c r="CR12" s="6"/>
+      <c r="CS12" s="6"/>
+      <c r="CT12" s="6"/>
+      <c r="CU12" s="6"/>
+      <c r="CV12" s="6"/>
+      <c r="CW12" s="6"/>
+      <c r="CX12" s="6"/>
+      <c r="CY12" s="6"/>
+      <c r="CZ12" s="6"/>
+      <c r="DA12" s="6"/>
+      <c r="DB12" s="6"/>
+      <c r="DC12" s="6"/>
+      <c r="DD12" s="6"/>
+      <c r="DE12" s="6"/>
+      <c r="DF12" s="6"/>
+      <c r="DG12" s="6"/>
+      <c r="DH12" s="6"/>
+      <c r="DI12" s="6"/>
+      <c r="DJ12" s="6"/>
+      <c r="DK12" s="6"/>
+      <c r="DL12" s="6"/>
+      <c r="DM12" s="6"/>
+      <c r="DN12" s="6"/>
+      <c r="DO12" s="6"/>
+      <c r="DP12" s="6"/>
+      <c r="DQ12" s="6"/>
+      <c r="DR12" s="6"/>
+      <c r="DS12" s="6"/>
+      <c r="DT12" s="6"/>
+      <c r="DU12" s="13"/>
     </row>
     <row r="13" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="12">
-        <v>44519</v>
+        <v>44516</v>
       </c>
       <c r="C13" s="12">
-        <v>44522</v>
+        <v>44518</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
@@ -3877,13 +3890,13 @@
     </row>
     <row r="14" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="12">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="C14" s="12">
-        <v>44528</v>
+        <v>44522</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
@@ -4012,13 +4025,13 @@
     </row>
     <row r="15" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" s="12">
-        <v>44529</v>
+        <v>44523</v>
       </c>
       <c r="C15" s="12">
-        <v>44530</v>
+        <v>44528</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
@@ -4146,10 +4159,18 @@
       <c r="DU15" s="14"/>
     </row>
     <row r="16" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C16" s="12">
+        <v>44530</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E16" s="20"/>
       <c r="F16" s="7"/>
       <c r="G16" s="6"/>
@@ -11257,7 +11278,12 @@
       <c r="DT71" s="4"/>
       <c r="DU71" s="14"/>
     </row>
-    <row r="72" spans="1:125" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="20"/>
       <c r="F72" s="7"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -11293,6 +11319,128 @@
       <c r="AL72" s="6"/>
       <c r="AM72" s="6"/>
       <c r="AN72" s="6"/>
+      <c r="AO72" s="4"/>
+      <c r="AP72" s="4"/>
+      <c r="AQ72" s="4"/>
+      <c r="AR72" s="4"/>
+      <c r="AS72" s="4"/>
+      <c r="AT72" s="4"/>
+      <c r="AU72" s="4"/>
+      <c r="AV72" s="4"/>
+      <c r="AW72" s="4"/>
+      <c r="AX72" s="4"/>
+      <c r="AY72" s="4"/>
+      <c r="AZ72" s="4"/>
+      <c r="BA72" s="4"/>
+      <c r="BB72" s="4"/>
+      <c r="BC72" s="4"/>
+      <c r="BD72" s="4"/>
+      <c r="BE72" s="4"/>
+      <c r="BF72" s="4"/>
+      <c r="BG72" s="4"/>
+      <c r="BH72" s="4"/>
+      <c r="BI72" s="4"/>
+      <c r="BJ72" s="4"/>
+      <c r="BK72" s="4"/>
+      <c r="BL72" s="4"/>
+      <c r="BM72" s="4"/>
+      <c r="BN72" s="4"/>
+      <c r="BO72" s="4"/>
+      <c r="BP72" s="4"/>
+      <c r="BQ72" s="4"/>
+      <c r="BR72" s="4"/>
+      <c r="BS72" s="4"/>
+      <c r="BT72" s="4"/>
+      <c r="BU72" s="4"/>
+      <c r="BV72" s="4"/>
+      <c r="BW72" s="4"/>
+      <c r="BX72" s="4"/>
+      <c r="BY72" s="4"/>
+      <c r="BZ72" s="4"/>
+      <c r="CA72" s="4"/>
+      <c r="CB72" s="4"/>
+      <c r="CC72" s="4"/>
+      <c r="CD72" s="4"/>
+      <c r="CE72" s="4"/>
+      <c r="CF72" s="4"/>
+      <c r="CG72" s="4"/>
+      <c r="CH72" s="4"/>
+      <c r="CI72" s="4"/>
+      <c r="CJ72" s="4"/>
+      <c r="CK72" s="4"/>
+      <c r="CL72" s="4"/>
+      <c r="CM72" s="4"/>
+      <c r="CN72" s="4"/>
+      <c r="CO72" s="4"/>
+      <c r="CP72" s="4"/>
+      <c r="CQ72" s="4"/>
+      <c r="CR72" s="4"/>
+      <c r="CS72" s="4"/>
+      <c r="CT72" s="4"/>
+      <c r="CU72" s="4"/>
+      <c r="CV72" s="4"/>
+      <c r="CW72" s="4"/>
+      <c r="CX72" s="4"/>
+      <c r="CY72" s="4"/>
+      <c r="CZ72" s="4"/>
+      <c r="DA72" s="4"/>
+      <c r="DB72" s="4"/>
+      <c r="DC72" s="4"/>
+      <c r="DD72" s="4"/>
+      <c r="DE72" s="4"/>
+      <c r="DF72" s="4"/>
+      <c r="DG72" s="4"/>
+      <c r="DH72" s="4"/>
+      <c r="DI72" s="4"/>
+      <c r="DJ72" s="4"/>
+      <c r="DK72" s="4"/>
+      <c r="DL72" s="4"/>
+      <c r="DM72" s="4"/>
+      <c r="DN72" s="4"/>
+      <c r="DO72" s="4"/>
+      <c r="DP72" s="4"/>
+      <c r="DQ72" s="4"/>
+      <c r="DR72" s="4"/>
+      <c r="DS72" s="4"/>
+      <c r="DT72" s="4"/>
+      <c r="DU72" s="14"/>
+    </row>
+    <row r="73" spans="1:125" x14ac:dyDescent="0.4">
+      <c r="F73" s="7"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="6"/>
+      <c r="AM73" s="6"/>
+      <c r="AN73" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}"/>
@@ -11303,7 +11451,7 @@
     <mergeCell ref="D1:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F4:DU9 F11:AN72 AO11:DU71">
+  <conditionalFormatting sqref="F4:DU9 F11:AN73 AO11:DU72">
     <cfRule type="expression" dxfId="7" priority="10">
       <formula>AND(F$2&gt;=$B4,E&amp;2&lt;=$F4)</formula>
     </cfRule>
@@ -11311,7 +11459,7 @@
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:DU9 F11:DU71">
+  <conditionalFormatting sqref="F4:DU9 F11:DU72">
     <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND(F$2&gt;=$B4,F$2&lt;=$C4)</formula>
     </cfRule>
@@ -11352,7 +11500,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E9 A11:E72</xm:sqref>
+          <xm:sqref>A4:E9 A11:E73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{01322F23-B3E2-4456-A206-F8D97D759BFC}">
@@ -11382,7 +11530,7 @@
           <x14:formula1>
             <xm:f>設定!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:E72</xm:sqref>
+          <xm:sqref>D4:E73</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE60F4-B334-4B8B-A173-BE74908F6922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A6BDA-7187-45DF-9875-6FFFBA6B9131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
@@ -958,7 +958,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3764,7 +3764,7 @@
         <v>44518</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="7"/>
@@ -11562,7 +11562,7 @@
       </c>
       <c r="D1" s="22">
         <f ca="1">TODAY()</f>
-        <v>44514</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -11722,18 +11722,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11755,14 +11755,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3DBC59-2257-473F-BDC8-F3FE21BEBEEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -11776,4 +11768,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A6BDA-7187-45DF-9875-6FFFBA6B9131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4C6747-F131-402F-BC05-61227FA5E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
@@ -131,16 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵がプレイヤーを追いかける</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵がスキルを使う</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -234,6 +224,31 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵 : 索敵範囲内に入ったら、プレイヤーのほうを向き、追いかける</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -958,14 +973,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="54" style="5" customWidth="1"/>
-    <col min="2" max="3" width="13.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="66.875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="0.375" style="20" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="18" customWidth="1"/>
     <col min="7" max="125" width="5.625" style="1" customWidth="1"/>
@@ -2816,7 +2831,7 @@
     </row>
     <row r="6" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="12">
         <v>44504</v>
@@ -2950,7 +2965,7 @@
     </row>
     <row r="7" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="12">
         <v>44506</v>
@@ -3084,7 +3099,7 @@
     </row>
     <row r="8" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="12">
         <v>44506</v>
@@ -3218,7 +3233,7 @@
     </row>
     <row r="9" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="12">
         <v>44510</v>
@@ -3352,7 +3367,7 @@
     </row>
     <row r="10" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="12">
         <v>44513</v>
@@ -3487,7 +3502,7 @@
     </row>
     <row r="11" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="12">
         <v>44513</v>
@@ -3621,7 +3636,7 @@
     </row>
     <row r="12" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="12">
         <v>44515</v>
@@ -3630,7 +3645,7 @@
         <v>44515</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" s="12"/>
       <c r="G12" s="6"/>
@@ -3755,7 +3770,7 @@
     </row>
     <row r="13" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B13" s="12">
         <v>44516</v>
@@ -3890,7 +3905,7 @@
     </row>
     <row r="14" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="12">
         <v>44519</v>
@@ -4025,7 +4040,7 @@
     </row>
     <row r="15" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="12">
         <v>44523</v>
@@ -4160,7 +4175,7 @@
     </row>
     <row r="16" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="12">
         <v>44529</v>

--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4C6747-F131-402F-BC05-61227FA5E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E5CA6B-9AC1-4DAE-B296-8BDC1F4AA2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -448,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +539,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,7 +557,21 @@
     <cellStyle name="40% - アクセント 6" xfId="1" builtinId="51"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGrid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="darkGrid">
@@ -972,16 +989,16 @@
   <dimension ref="A1:FC73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="66.875" style="5" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="0.375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="2.875" style="20" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="18" customWidth="1"/>
     <col min="7" max="125" width="5.625" style="1" customWidth="1"/>
     <col min="126" max="126" width="5.625" style="18" customWidth="1"/>
@@ -990,16 +1007,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="20"/>
@@ -1519,10 +1536,10 @@
       <c r="FC1" s="8"/>
     </row>
     <row r="2" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="20"/>
       <c r="F2" s="16">
         <f>F1</f>
@@ -2040,10 +2057,10 @@
       <c r="FC2" s="9"/>
     </row>
     <row r="3" spans="1:159" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="21"/>
       <c r="F3" s="17">
         <f>F2</f>
@@ -3375,7 +3392,7 @@
       <c r="C10" s="12">
         <v>44515</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="26"/>
@@ -3770,16 +3787,16 @@
     </row>
     <row r="13" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12">
-        <v>44516</v>
+        <v>44523</v>
       </c>
       <c r="C13" s="12">
-        <v>44518</v>
+        <v>44528</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="7"/>
@@ -3905,16 +3922,16 @@
     </row>
     <row r="14" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B14" s="12">
-        <v>44519</v>
+        <v>44516</v>
       </c>
       <c r="C14" s="12">
-        <v>44522</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
+        <v>44518</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>7</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="7"/>
@@ -4039,19 +4056,19 @@
       <c r="DU14" s="14"/>
     </row>
     <row r="15" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
+      <c r="A15" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="12">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="C15" s="12">
-        <v>44528</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="20"/>
+        <v>44521</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="29"/>
       <c r="F15" s="7"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -4175,15 +4192,15 @@
     </row>
     <row r="16" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="12">
-        <v>44529</v>
+        <v>44522</v>
       </c>
       <c r="C16" s="12">
-        <v>44530</v>
-      </c>
-      <c r="D16" s="5" t="s">
+        <v>44526</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="20"/>
@@ -4309,11 +4326,19 @@
       <c r="DU16" s="14"/>
     </row>
     <row r="17" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="20"/>
+      <c r="A17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12">
+        <v>44527</v>
+      </c>
+      <c r="C17" s="12">
+        <v>44528</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="29"/>
       <c r="F17" s="7"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -11458,7 +11483,11 @@
       <c r="AN73" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}"/>
+  <autoFilter ref="A1:D3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:D16">
+      <sortCondition ref="D1:D3"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -11466,29 +11495,29 @@
     <mergeCell ref="D1:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F4:DU9 F11:AN73 AO11:DU72">
-    <cfRule type="expression" dxfId="7" priority="10">
+  <conditionalFormatting sqref="F4:DU9 AO18:DU72 F18:AN73 F11:DU17">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>AND(F$2&gt;=$B4,E&amp;2&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:DU9 F11:DU72">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND(F$2&gt;=$B4,F$2&lt;=$C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:DU10">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(F$2&gt;=$B10,E&amp;2&lt;=$F10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:DU10">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>AND(F$2&gt;=$B10,F$2&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11498,7 +11527,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="15" id="{833B840C-C56B-4CE1-99AB-1A57299583A7}">
+          <x14:cfRule type="expression" priority="19" id="{833B840C-C56B-4CE1-99AB-1A57299583A7}">
             <xm:f>$D4 =設定!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11515,10 +11544,10 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E9 A11:E73</xm:sqref>
+          <xm:sqref>A4:E9 A18:E73 A11:E16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{01322F23-B3E2-4456-A206-F8D97D759BFC}">
+          <x14:cfRule type="expression" priority="8" id="{01322F23-B3E2-4456-A206-F8D97D759BFC}">
             <xm:f>$D10 =設定!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11536,6 +11565,26 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A10:E10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{859AB6B1-5352-4065-978B-A733B200989B}">
+            <xm:f>$D17 =設定!$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="darkGrid">
+                  <fgColor theme="0" tint="-0.34998626667073579"/>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left/>
+                <right/>
+                <top/>
+                <bottom/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A17:E17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11577,7 +11626,7 @@
       </c>
       <c r="D1" s="22">
         <f ca="1">TODAY()</f>
-        <v>44516</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -11605,6 +11654,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004302F2D77EE64E478C60EF5F0F5269A4" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ea455938686a56006572c2c38cacaea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71640177-36f4-4fe3-8ab8-fd1fb7d60170" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05b37b0ac82d12c9365622fdb5a02a83" ns3:_="">
     <xsd:import namespace="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
@@ -11736,35 +11800,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11786,9 +11825,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E5CA6B-9AC1-4DAE-B296-8BDC1F4AA2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E0B7A-353F-4CB0-8431-219F19ECC044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FB9ABAF-72BE-441A-9854-88A22946EF7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49789EA5-A0D5-493E-AB90-D85039356BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
-    <sheet name="設定" sheetId="2" r:id="rId2"/>
+    <sheet name="追加したい内容" sheetId="3" r:id="rId2"/>
+    <sheet name="設定" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ガントチャート!$A$1:$D$3</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -252,6 +253,133 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>戦車と壁の当たり判定のめり込みを直す</t>
+    <rPh sb="0" eb="2">
+      <t>センシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速リロードアクションの追加</t>
+    <rPh sb="0" eb="2">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんなマップにするか決める</t>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル用のサウンドを追加</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャの修正（SelectUi.png）追加した機能の説明を追加</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャの修正（Ui01.png）追加した入力方法の説明を追加</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LODを使ったマップの作成</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の複数配置</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒されたときの演出</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加したい内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +390,7 @@
     <numFmt numFmtId="177" formatCode="d"/>
     <numFmt numFmtId="178" formatCode="m&quot;月&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +414,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +442,19 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -377,26 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -437,7 +564,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,8 +574,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,31 +618,22 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -524,12 +645,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,25 +654,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="40% - アクセント 1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - アクセント 6" xfId="1" builtinId="51"/>
+    <cellStyle name="アクセント 3" xfId="3" builtinId="37"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGrid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGrid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGrid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGrid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGrid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="darkGrid">
@@ -989,16 +1175,15 @@
   <dimension ref="A1:FC73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="66.875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="2.875" style="20" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="66.875" style="23" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="2.375" style="25" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="18" customWidth="1"/>
     <col min="7" max="125" width="5.625" style="1" customWidth="1"/>
     <col min="126" max="126" width="5.625" style="18" customWidth="1"/>
@@ -1007,19 +1192,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="15">
         <f>設定!A2</f>
         <v>44501</v>
@@ -1536,11 +1721,11 @@
       <c r="FC1" s="8"/>
     </row>
     <row r="2" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="16">
         <f>F1</f>
         <v>44501</v>
@@ -2057,11 +2242,11 @@
       <c r="FC2" s="9"/>
     </row>
     <row r="3" spans="1:159" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="17">
         <f>F2</f>
         <v>44501</v>
@@ -2578,7 +2763,7 @@
       <c r="FC3" s="11"/>
     </row>
     <row r="4" spans="1:159" s="7" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12">
@@ -2590,9 +2775,9 @@
       <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -2713,7 +2898,7 @@
       <c r="DU4" s="13"/>
     </row>
     <row r="5" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="12">
@@ -2725,7 +2910,7 @@
       <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="27"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2847,7 +3032,7 @@
       <c r="DU5" s="13"/>
     </row>
     <row r="6" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="12">
@@ -2859,7 +3044,7 @@
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="27"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2981,7 +3166,7 @@
       <c r="DU6" s="13"/>
     </row>
     <row r="7" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="12">
@@ -2993,7 +3178,7 @@
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="27"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3115,7 +3300,7 @@
       <c r="DU7" s="13"/>
     </row>
     <row r="8" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="12">
@@ -3127,7 +3312,7 @@
       <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="27"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -3249,7 +3434,7 @@
       <c r="DU8" s="13"/>
     </row>
     <row r="9" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12">
@@ -3261,7 +3446,7 @@
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="27"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -3270,9 +3455,9 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -3383,7 +3568,7 @@
       <c r="DU9" s="13"/>
     </row>
     <row r="10" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="12">
@@ -3392,10 +3577,10 @@
       <c r="C10" s="12">
         <v>44515</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="26"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -3518,7 +3703,7 @@
       <c r="DU10" s="14"/>
     </row>
     <row r="11" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="12">
@@ -3530,7 +3715,7 @@
       <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="27"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -3652,7 +3837,7 @@
       <c r="DU11" s="13"/>
     </row>
     <row r="12" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="12">
@@ -3664,7 +3849,7 @@
       <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="27"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -3786,7 +3971,7 @@
       <c r="DU12" s="13"/>
     </row>
     <row r="13" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="12">
@@ -3795,10 +3980,10 @@
       <c r="C13" s="12">
         <v>44528</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -3921,7 +4106,7 @@
       <c r="DU13" s="14"/>
     </row>
     <row r="14" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="12">
@@ -3930,10 +4115,10 @@
       <c r="C14" s="12">
         <v>44518</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="20"/>
+      <c r="D14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="25"/>
       <c r="F14" s="7"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -4056,7 +4241,7 @@
       <c r="DU14" s="14"/>
     </row>
     <row r="15" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="12">
@@ -4065,10 +4250,10 @@
       <c r="C15" s="12">
         <v>44521</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="7"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -4191,7 +4376,7 @@
       <c r="DU15" s="14"/>
     </row>
     <row r="16" spans="1:159" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="12">
@@ -4200,10 +4385,10 @@
       <c r="C16" s="12">
         <v>44526</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="7"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -4326,7 +4511,7 @@
       <c r="DU16" s="14"/>
     </row>
     <row r="17" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="12">
@@ -4335,10 +4520,10 @@
       <c r="C17" s="12">
         <v>44528</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="7"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -4461,11 +4646,11 @@
       <c r="DU17" s="14"/>
     </row>
     <row r="18" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="7"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -4588,11 +4773,11 @@
       <c r="DU18" s="14"/>
     </row>
     <row r="19" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="7"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -4715,11 +4900,11 @@
       <c r="DU19" s="14"/>
     </row>
     <row r="20" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="7"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4842,11 +5027,11 @@
       <c r="DU20" s="14"/>
     </row>
     <row r="21" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -4969,11 +5154,11 @@
       <c r="DU21" s="14"/>
     </row>
     <row r="22" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="7"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -5096,11 +5281,11 @@
       <c r="DU22" s="14"/>
     </row>
     <row r="23" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="20"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="7"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -5223,11 +5408,11 @@
       <c r="DU23" s="14"/>
     </row>
     <row r="24" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="20"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="7"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -5350,11 +5535,11 @@
       <c r="DU24" s="14"/>
     </row>
     <row r="25" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="7"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -5477,11 +5662,11 @@
       <c r="DU25" s="14"/>
     </row>
     <row r="26" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="7"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -5604,11 +5789,11 @@
       <c r="DU26" s="14"/>
     </row>
     <row r="27" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -5731,11 +5916,11 @@
       <c r="DU27" s="14"/>
     </row>
     <row r="28" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="7"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -5858,11 +6043,11 @@
       <c r="DU28" s="14"/>
     </row>
     <row r="29" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="20"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -5985,11 +6170,11 @@
       <c r="DU29" s="14"/>
     </row>
     <row r="30" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="20"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="7"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -6112,11 +6297,11 @@
       <c r="DU30" s="14"/>
     </row>
     <row r="31" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="20"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="7"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -6239,11 +6424,11 @@
       <c r="DU31" s="14"/>
     </row>
     <row r="32" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="20"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="7"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -6366,11 +6551,11 @@
       <c r="DU32" s="14"/>
     </row>
     <row r="33" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="20"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="7"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -6493,11 +6678,11 @@
       <c r="DU33" s="14"/>
     </row>
     <row r="34" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="20"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="7"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -6620,11 +6805,11 @@
       <c r="DU34" s="14"/>
     </row>
     <row r="35" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="20"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="7"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -6747,11 +6932,11 @@
       <c r="DU35" s="14"/>
     </row>
     <row r="36" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="20"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="7"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -6874,11 +7059,11 @@
       <c r="DU36" s="14"/>
     </row>
     <row r="37" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="20"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="7"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -7001,11 +7186,11 @@
       <c r="DU37" s="14"/>
     </row>
     <row r="38" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="20"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="7"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -7128,11 +7313,11 @@
       <c r="DU38" s="14"/>
     </row>
     <row r="39" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="20"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="7"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -7255,11 +7440,11 @@
       <c r="DU39" s="14"/>
     </row>
     <row r="40" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="20"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="7"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -7382,11 +7567,11 @@
       <c r="DU40" s="14"/>
     </row>
     <row r="41" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="20"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="7"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -7509,11 +7694,11 @@
       <c r="DU41" s="14"/>
     </row>
     <row r="42" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="20"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="7"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -7636,11 +7821,11 @@
       <c r="DU42" s="14"/>
     </row>
     <row r="43" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="20"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="7"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -7763,11 +7948,11 @@
       <c r="DU43" s="14"/>
     </row>
     <row r="44" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="20"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="7"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -7890,11 +8075,11 @@
       <c r="DU44" s="14"/>
     </row>
     <row r="45" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="20"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="7"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -8017,11 +8202,11 @@
       <c r="DU45" s="14"/>
     </row>
     <row r="46" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="20"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="7"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -8144,11 +8329,11 @@
       <c r="DU46" s="14"/>
     </row>
     <row r="47" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="20"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="7"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -8271,11 +8456,11 @@
       <c r="DU47" s="14"/>
     </row>
     <row r="48" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="20"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="7"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -8398,11 +8583,11 @@
       <c r="DU48" s="14"/>
     </row>
     <row r="49" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="20"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="7"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -8525,11 +8710,11 @@
       <c r="DU49" s="14"/>
     </row>
     <row r="50" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="20"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="7"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8652,11 +8837,11 @@
       <c r="DU50" s="14"/>
     </row>
     <row r="51" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="20"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="7"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -8779,11 +8964,11 @@
       <c r="DU51" s="14"/>
     </row>
     <row r="52" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="20"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="7"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -8906,11 +9091,11 @@
       <c r="DU52" s="14"/>
     </row>
     <row r="53" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="20"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="7"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -9033,11 +9218,11 @@
       <c r="DU53" s="14"/>
     </row>
     <row r="54" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="20"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="7"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -9160,11 +9345,11 @@
       <c r="DU54" s="14"/>
     </row>
     <row r="55" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="20"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="25"/>
       <c r="F55" s="7"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -9287,11 +9472,11 @@
       <c r="DU55" s="14"/>
     </row>
     <row r="56" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="20"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="25"/>
       <c r="F56" s="7"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -9414,11 +9599,11 @@
       <c r="DU56" s="14"/>
     </row>
     <row r="57" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="20"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="7"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -9541,11 +9726,11 @@
       <c r="DU57" s="14"/>
     </row>
     <row r="58" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="20"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="25"/>
       <c r="F58" s="7"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -9668,11 +9853,11 @@
       <c r="DU58" s="14"/>
     </row>
     <row r="59" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="20"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="25"/>
       <c r="F59" s="7"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -9795,11 +9980,11 @@
       <c r="DU59" s="14"/>
     </row>
     <row r="60" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="20"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="7"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -9922,11 +10107,11 @@
       <c r="DU60" s="14"/>
     </row>
     <row r="61" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="20"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="7"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -10049,11 +10234,11 @@
       <c r="DU61" s="14"/>
     </row>
     <row r="62" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="20"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="25"/>
       <c r="F62" s="7"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -10176,11 +10361,11 @@
       <c r="DU62" s="14"/>
     </row>
     <row r="63" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="20"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="25"/>
       <c r="F63" s="7"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -10303,11 +10488,11 @@
       <c r="DU63" s="14"/>
     </row>
     <row r="64" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="20"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="25"/>
       <c r="F64" s="7"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -10430,11 +10615,11 @@
       <c r="DU64" s="14"/>
     </row>
     <row r="65" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="20"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="25"/>
       <c r="F65" s="7"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -10557,11 +10742,11 @@
       <c r="DU65" s="14"/>
     </row>
     <row r="66" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="20"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="25"/>
       <c r="F66" s="7"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -10684,11 +10869,11 @@
       <c r="DU66" s="14"/>
     </row>
     <row r="67" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="20"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="25"/>
       <c r="F67" s="7"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -10811,11 +10996,11 @@
       <c r="DU67" s="14"/>
     </row>
     <row r="68" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="20"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="7"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -10938,11 +11123,11 @@
       <c r="DU68" s="14"/>
     </row>
     <row r="69" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="20"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="25"/>
       <c r="F69" s="7"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -11065,11 +11250,11 @@
       <c r="DU69" s="14"/>
     </row>
     <row r="70" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="20"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="25"/>
       <c r="F70" s="7"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -11192,11 +11377,11 @@
       <c r="DU70" s="14"/>
     </row>
     <row r="71" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="20"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="25"/>
       <c r="F71" s="7"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -11319,11 +11504,11 @@
       <c r="DU71" s="14"/>
     </row>
     <row r="72" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="20"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="25"/>
       <c r="F72" s="7"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -11496,28 +11681,28 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F4:DU9 AO18:DU72 F18:AN73 F11:DU17">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>AND(F$2&gt;=$B4,E&amp;2&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:DU9 F11:DU72">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND(F$2&gt;=$B4,F$2&lt;=$C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:DU10">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>AND(F$2&gt;=$B10,E&amp;2&lt;=$F10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:DU10">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>AND(F$2&gt;=$B10,F$2&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11544,7 +11729,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E9 A18:E73 A11:E16</xm:sqref>
+          <xm:sqref>A4:E9 A11:E16 A42:E73 A18:E19 B20:E41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="8" id="{01322F23-B3E2-4456-A206-F8D97D759BFC}">
@@ -11603,12 +11788,145 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5F9013-D795-4835-91F7-799119C2F7D4}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="81.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{C3C48600-94A8-45E5-95D7-AD58E46122BD}">
+            <xm:f>$D1 =設定!$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="darkGrid">
+                  <fgColor theme="0" tint="-0.34998626667073579"/>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left/>
+                <right/>
+                <top/>
+                <bottom/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A1:A3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{FC0466BB-EE38-4975-9007-84A9B1CD3D8D}">
+            <xm:f>$D1048575 =設定!$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="darkGrid">
+                  <fgColor theme="0" tint="-0.34998626667073579"/>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left/>
+                <right/>
+                <top/>
+                <bottom/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A2:A10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{75E0B6BC-58A4-488A-819C-AC3F8167363A}">
+            <xm:f>$D13 =設定!$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="darkGrid">
+                  <fgColor theme="0" tint="-0.34998626667073579"/>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left/>
+                <right/>
+                <top/>
+                <bottom/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3D833E-1801-421E-A49D-475E92E09F59}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -11624,9 +11942,9 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="19">
         <f ca="1">TODAY()</f>
-        <v>44517</v>
+        <v>44518</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -11654,21 +11972,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004302F2D77EE64E478C60EF5F0F5269A4" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ea455938686a56006572c2c38cacaea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71640177-36f4-4fe3-8ab8-fd1fb7d60170" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05b37b0ac82d12c9365622fdb5a02a83" ns3:_="">
     <xsd:import namespace="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
@@ -11800,10 +12103,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11825,19 +12153,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E0B7A-353F-4CB0-8431-219F19ECC044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5C771B-3DE4-403E-BCE7-4FA40E2D33A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49789EA5-A0D5-493E-AB90-D85039356BE9}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ガントチャート!$A$1:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -380,6 +381,69 @@
     <t>追加したい内容</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>敵：プレイヤーとの距離を測り、射程範囲に入るまで前進する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>シャテイハンイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁とのめり込みの修正</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LODシステムの実装</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業バッファ</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウサギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャの修正</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -578,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,6 +730,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - アクセント 1" xfId="2" builtinId="31"/>
@@ -673,7 +740,7 @@
     <cellStyle name="アクセント 3" xfId="3" builtinId="37"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="darkGrid">
@@ -774,17 +841,41 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkGrid">
-          <fgColor theme="0" tint="-0.34998626667073579"/>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="4"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1172,10 +1263,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}">
-  <dimension ref="A1:FC73"/>
+  <dimension ref="A1:FC75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <pane xSplit="5" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1192,16 +1284,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="25"/>
@@ -1721,10 +1813,10 @@
       <c r="FC1" s="8"/>
     </row>
     <row r="2" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="25"/>
       <c r="F2" s="16">
         <f>F1</f>
@@ -2242,10 +2334,10 @@
       <c r="FC2" s="9"/>
     </row>
     <row r="3" spans="1:159" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="26"/>
       <c r="F3" s="17">
         <f>F2</f>
@@ -4116,7 +4208,7 @@
         <v>44518</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="7"/>
@@ -4251,7 +4343,7 @@
         <v>44521</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="7"/>
@@ -4383,7 +4475,7 @@
         <v>44522</v>
       </c>
       <c r="C16" s="12">
-        <v>44526</v>
+        <v>44523</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>5</v>
@@ -4511,16 +4603,16 @@
       <c r="DU16" s="14"/>
     </row>
     <row r="17" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="23" t="s">
-        <v>14</v>
+      <c r="A17" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="12">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="C17" s="12">
-        <v>44528</v>
-      </c>
-      <c r="D17" s="23" t="s">
+        <v>44526</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="25"/>
@@ -4646,10 +4738,18 @@
       <c r="DU17" s="14"/>
     </row>
     <row r="18" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12">
+        <v>44527</v>
+      </c>
+      <c r="C18" s="12">
+        <v>44528</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="E18" s="25"/>
       <c r="F18" s="7"/>
       <c r="G18" s="6"/>
@@ -4773,10 +4873,18 @@
       <c r="DU18" s="14"/>
     </row>
     <row r="19" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C19" s="12">
+        <v>44531</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>5</v>
+      </c>
       <c r="E19" s="25"/>
       <c r="F19" s="7"/>
       <c r="G19" s="6"/>
@@ -4900,10 +5008,18 @@
       <c r="DU19" s="14"/>
     </row>
     <row r="20" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="12">
+        <v>44532</v>
+      </c>
+      <c r="C20" s="12">
+        <v>44533</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="E20" s="25"/>
       <c r="F20" s="7"/>
       <c r="G20" s="6"/>
@@ -5027,10 +5143,18 @@
       <c r="DU20" s="14"/>
     </row>
     <row r="21" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="12">
+        <v>44534</v>
+      </c>
+      <c r="C21" s="12">
+        <v>44538</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="E21" s="25"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6"/>
@@ -5154,10 +5278,18 @@
       <c r="DU21" s="14"/>
     </row>
     <row r="22" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="12">
+        <v>44539</v>
+      </c>
+      <c r="C22" s="12">
+        <v>44540</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="E22" s="25"/>
       <c r="F22" s="7"/>
       <c r="G22" s="6"/>
@@ -5281,10 +5413,18 @@
       <c r="DU22" s="14"/>
     </row>
     <row r="23" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="12">
+        <v>44541</v>
+      </c>
+      <c r="C23" s="12">
+        <v>44542</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="E23" s="25"/>
       <c r="F23" s="7"/>
       <c r="G23" s="6"/>
@@ -5408,10 +5548,18 @@
       <c r="DU23" s="14"/>
     </row>
     <row r="24" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="12">
+        <v>44543</v>
+      </c>
+      <c r="C24" s="12">
+        <v>44545</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="E24" s="25"/>
       <c r="F24" s="7"/>
       <c r="G24" s="6"/>
@@ -11630,7 +11778,12 @@
       <c r="DT72" s="4"/>
       <c r="DU72" s="14"/>
     </row>
-    <row r="73" spans="1:125" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="25"/>
       <c r="F73" s="7"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -11666,6 +11819,255 @@
       <c r="AL73" s="6"/>
       <c r="AM73" s="6"/>
       <c r="AN73" s="6"/>
+      <c r="AO73" s="4"/>
+      <c r="AP73" s="4"/>
+      <c r="AQ73" s="4"/>
+      <c r="AR73" s="4"/>
+      <c r="AS73" s="4"/>
+      <c r="AT73" s="4"/>
+      <c r="AU73" s="4"/>
+      <c r="AV73" s="4"/>
+      <c r="AW73" s="4"/>
+      <c r="AX73" s="4"/>
+      <c r="AY73" s="4"/>
+      <c r="AZ73" s="4"/>
+      <c r="BA73" s="4"/>
+      <c r="BB73" s="4"/>
+      <c r="BC73" s="4"/>
+      <c r="BD73" s="4"/>
+      <c r="BE73" s="4"/>
+      <c r="BF73" s="4"/>
+      <c r="BG73" s="4"/>
+      <c r="BH73" s="4"/>
+      <c r="BI73" s="4"/>
+      <c r="BJ73" s="4"/>
+      <c r="BK73" s="4"/>
+      <c r="BL73" s="4"/>
+      <c r="BM73" s="4"/>
+      <c r="BN73" s="4"/>
+      <c r="BO73" s="4"/>
+      <c r="BP73" s="4"/>
+      <c r="BQ73" s="4"/>
+      <c r="BR73" s="4"/>
+      <c r="BS73" s="4"/>
+      <c r="BT73" s="4"/>
+      <c r="BU73" s="4"/>
+      <c r="BV73" s="4"/>
+      <c r="BW73" s="4"/>
+      <c r="BX73" s="4"/>
+      <c r="BY73" s="4"/>
+      <c r="BZ73" s="4"/>
+      <c r="CA73" s="4"/>
+      <c r="CB73" s="4"/>
+      <c r="CC73" s="4"/>
+      <c r="CD73" s="4"/>
+      <c r="CE73" s="4"/>
+      <c r="CF73" s="4"/>
+      <c r="CG73" s="4"/>
+      <c r="CH73" s="4"/>
+      <c r="CI73" s="4"/>
+      <c r="CJ73" s="4"/>
+      <c r="CK73" s="4"/>
+      <c r="CL73" s="4"/>
+      <c r="CM73" s="4"/>
+      <c r="CN73" s="4"/>
+      <c r="CO73" s="4"/>
+      <c r="CP73" s="4"/>
+      <c r="CQ73" s="4"/>
+      <c r="CR73" s="4"/>
+      <c r="CS73" s="4"/>
+      <c r="CT73" s="4"/>
+      <c r="CU73" s="4"/>
+      <c r="CV73" s="4"/>
+      <c r="CW73" s="4"/>
+      <c r="CX73" s="4"/>
+      <c r="CY73" s="4"/>
+      <c r="CZ73" s="4"/>
+      <c r="DA73" s="4"/>
+      <c r="DB73" s="4"/>
+      <c r="DC73" s="4"/>
+      <c r="DD73" s="4"/>
+      <c r="DE73" s="4"/>
+      <c r="DF73" s="4"/>
+      <c r="DG73" s="4"/>
+      <c r="DH73" s="4"/>
+      <c r="DI73" s="4"/>
+      <c r="DJ73" s="4"/>
+      <c r="DK73" s="4"/>
+      <c r="DL73" s="4"/>
+      <c r="DM73" s="4"/>
+      <c r="DN73" s="4"/>
+      <c r="DO73" s="4"/>
+      <c r="DP73" s="4"/>
+      <c r="DQ73" s="4"/>
+      <c r="DR73" s="4"/>
+      <c r="DS73" s="4"/>
+      <c r="DT73" s="4"/>
+      <c r="DU73" s="14"/>
+    </row>
+    <row r="74" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="6"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="6"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6"/>
+      <c r="AL74" s="6"/>
+      <c r="AM74" s="6"/>
+      <c r="AN74" s="6"/>
+      <c r="AO74" s="4"/>
+      <c r="AP74" s="4"/>
+      <c r="AQ74" s="4"/>
+      <c r="AR74" s="4"/>
+      <c r="AS74" s="4"/>
+      <c r="AT74" s="4"/>
+      <c r="AU74" s="4"/>
+      <c r="AV74" s="4"/>
+      <c r="AW74" s="4"/>
+      <c r="AX74" s="4"/>
+      <c r="AY74" s="4"/>
+      <c r="AZ74" s="4"/>
+      <c r="BA74" s="4"/>
+      <c r="BB74" s="4"/>
+      <c r="BC74" s="4"/>
+      <c r="BD74" s="4"/>
+      <c r="BE74" s="4"/>
+      <c r="BF74" s="4"/>
+      <c r="BG74" s="4"/>
+      <c r="BH74" s="4"/>
+      <c r="BI74" s="4"/>
+      <c r="BJ74" s="4"/>
+      <c r="BK74" s="4"/>
+      <c r="BL74" s="4"/>
+      <c r="BM74" s="4"/>
+      <c r="BN74" s="4"/>
+      <c r="BO74" s="4"/>
+      <c r="BP74" s="4"/>
+      <c r="BQ74" s="4"/>
+      <c r="BR74" s="4"/>
+      <c r="BS74" s="4"/>
+      <c r="BT74" s="4"/>
+      <c r="BU74" s="4"/>
+      <c r="BV74" s="4"/>
+      <c r="BW74" s="4"/>
+      <c r="BX74" s="4"/>
+      <c r="BY74" s="4"/>
+      <c r="BZ74" s="4"/>
+      <c r="CA74" s="4"/>
+      <c r="CB74" s="4"/>
+      <c r="CC74" s="4"/>
+      <c r="CD74" s="4"/>
+      <c r="CE74" s="4"/>
+      <c r="CF74" s="4"/>
+      <c r="CG74" s="4"/>
+      <c r="CH74" s="4"/>
+      <c r="CI74" s="4"/>
+      <c r="CJ74" s="4"/>
+      <c r="CK74" s="4"/>
+      <c r="CL74" s="4"/>
+      <c r="CM74" s="4"/>
+      <c r="CN74" s="4"/>
+      <c r="CO74" s="4"/>
+      <c r="CP74" s="4"/>
+      <c r="CQ74" s="4"/>
+      <c r="CR74" s="4"/>
+      <c r="CS74" s="4"/>
+      <c r="CT74" s="4"/>
+      <c r="CU74" s="4"/>
+      <c r="CV74" s="4"/>
+      <c r="CW74" s="4"/>
+      <c r="CX74" s="4"/>
+      <c r="CY74" s="4"/>
+      <c r="CZ74" s="4"/>
+      <c r="DA74" s="4"/>
+      <c r="DB74" s="4"/>
+      <c r="DC74" s="4"/>
+      <c r="DD74" s="4"/>
+      <c r="DE74" s="4"/>
+      <c r="DF74" s="4"/>
+      <c r="DG74" s="4"/>
+      <c r="DH74" s="4"/>
+      <c r="DI74" s="4"/>
+      <c r="DJ74" s="4"/>
+      <c r="DK74" s="4"/>
+      <c r="DL74" s="4"/>
+      <c r="DM74" s="4"/>
+      <c r="DN74" s="4"/>
+      <c r="DO74" s="4"/>
+      <c r="DP74" s="4"/>
+      <c r="DQ74" s="4"/>
+      <c r="DR74" s="4"/>
+      <c r="DS74" s="4"/>
+      <c r="DT74" s="4"/>
+      <c r="DU74" s="14"/>
+    </row>
+    <row r="75" spans="1:125" x14ac:dyDescent="0.4">
+      <c r="F75" s="7"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6"/>
+      <c r="AF75" s="6"/>
+      <c r="AG75" s="6"/>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6"/>
+      <c r="AK75" s="6"/>
+      <c r="AL75" s="6"/>
+      <c r="AM75" s="6"/>
+      <c r="AN75" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}">
@@ -11680,30 +12082,43 @@
     <mergeCell ref="D1:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F4:DU9 AO18:DU72 F18:AN73 F11:DU17">
-    <cfRule type="expression" dxfId="13" priority="14">
+  <conditionalFormatting sqref="F4:DU9 AO20:DU74 F20:AN75 F11:DU16 F18:DU19">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>AND(F$2&gt;=$B4,E&amp;2&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:DU9 F11:DU72">
-    <cfRule type="expression" dxfId="11" priority="12">
+  <conditionalFormatting sqref="F4:DU9 F11:DU16 F18:DU74">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>AND(F$2&gt;=$B4,F$2&lt;=$C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:DU10">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>AND(F$2&gt;=$B10,E&amp;2&lt;=$F10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:DU10">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>AND(F$2&gt;=$B10,F$2&lt;=$C10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:DU17">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>AND(F$2&gt;=$B17,E&amp;2&lt;=$F17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:DU17">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>AND(F$2&gt;=$B17,F$2&lt;=$C17)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11712,7 +12127,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="19" id="{833B840C-C56B-4CE1-99AB-1A57299583A7}">
+          <x14:cfRule type="expression" priority="23" id="{833B840C-C56B-4CE1-99AB-1A57299583A7}">
             <xm:f>$D4 =設定!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11729,10 +12144,10 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E9 A11:E16 A42:E73 A18:E19 B20:E41</xm:sqref>
+          <xm:sqref>A4:E9 A11:E16 A44:E75 A20:E21 B22:E43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="8" id="{01322F23-B3E2-4456-A206-F8D97D759BFC}">
+          <x14:cfRule type="expression" priority="12" id="{01322F23-B3E2-4456-A206-F8D97D759BFC}">
             <xm:f>$D10 =設定!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11752,7 +12167,27 @@
           <xm:sqref>A10:E10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{859AB6B1-5352-4065-978B-A733B200989B}">
+          <x14:cfRule type="expression" priority="8" id="{859AB6B1-5352-4065-978B-A733B200989B}">
+            <xm:f>$D18 =設定!$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="darkGrid">
+                  <fgColor theme="0" tint="-0.34998626667073579"/>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left/>
+                <right/>
+                <top/>
+                <bottom/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A18:E19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{26FB132E-5889-4A3F-929A-42B2854719F9}">
             <xm:f>$D17 =設定!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -11779,7 +12214,7 @@
           <x14:formula1>
             <xm:f>設定!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:E73</xm:sqref>
+          <xm:sqref>D4:E75</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11792,7 +12227,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11944,7 +12379,7 @@
       </c>
       <c r="D1" s="19">
         <f ca="1">TODAY()</f>
-        <v>44518</v>
+        <v>44521</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">

--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5C771B-3DE4-403E-BCE7-4FA40E2D33A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5D6C06-B6A7-4374-AF44-68ECF349047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49789EA5-A0D5-493E-AB90-D85039356BE9}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ガントチャート!$A$1:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1267,7 +1266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ19" sqref="AJ19"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4478,7 +4477,7 @@
         <v>44523</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="7"/>
@@ -4613,7 +4612,7 @@
         <v>44526</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="7"/>
@@ -12407,6 +12406,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004302F2D77EE64E478C60EF5F0F5269A4" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ea455938686a56006572c2c38cacaea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71640177-36f4-4fe3-8ab8-fd1fb7d60170" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05b37b0ac82d12c9365622fdb5a02a83" ns3:_="">
     <xsd:import namespace="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
@@ -12538,35 +12552,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12588,9 +12577,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/新ガントチャート.xlsx
+++ b/新ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5D6C06-B6A7-4374-AF44-68ECF349047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B128FE46-F2D7-4DE2-BE0A-289F58EC074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49789EA5-A0D5-493E-AB90-D85039356BE9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -641,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +732,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - アクセント 1" xfId="2" builtinId="31"/>
@@ -739,7 +742,59 @@
     <cellStyle name="アクセント 3" xfId="3" builtinId="37"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGrid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="4"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="darkGrid">
@@ -781,6 +836,58 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGrid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="4"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1262,11 +1369,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}">
-  <dimension ref="A1:FC75"/>
+  <dimension ref="A1:FC76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A18" sqref="A18"/>
+      <selection pane="topRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1283,16 +1390,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="25"/>
@@ -1812,10 +1919,10 @@
       <c r="FC1" s="8"/>
     </row>
     <row r="2" spans="1:159" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="25"/>
       <c r="F2" s="16">
         <f>F1</f>
@@ -2333,10 +2440,10 @@
       <c r="FC2" s="9"/>
     </row>
     <row r="3" spans="1:159" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="26"/>
       <c r="F3" s="17">
         <f>F2</f>
@@ -4612,7 +4719,7 @@
         <v>44526</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="7"/>
@@ -4747,7 +4854,7 @@
         <v>44528</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="7"/>
@@ -4876,10 +4983,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="12">
-        <v>44529</v>
+        <v>44522</v>
       </c>
       <c r="C19" s="12">
-        <v>44531</v>
+        <v>44528</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>5</v>
@@ -5011,10 +5118,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="12">
-        <v>44532</v>
+        <v>44529</v>
       </c>
       <c r="C20" s="12">
-        <v>44533</v>
+        <v>44531</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>5</v>
@@ -5142,16 +5249,16 @@
       <c r="DU20" s="14"/>
     </row>
     <row r="21" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
-        <v>33</v>
+      <c r="A21" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="B21" s="12">
-        <v>44534</v>
+        <v>44532</v>
       </c>
       <c r="C21" s="12">
-        <v>44538</v>
-      </c>
-      <c r="D21" s="23" t="s">
+        <v>44533</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="25"/>
@@ -5278,13 +5385,13 @@
     </row>
     <row r="22" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="12">
-        <v>44539</v>
+        <v>44534</v>
       </c>
       <c r="C22" s="12">
-        <v>44540</v>
+        <v>44538</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>5</v>
@@ -5413,13 +5520,13 @@
     </row>
     <row r="23" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="12">
-        <v>44541</v>
+        <v>44539</v>
       </c>
       <c r="C23" s="12">
-        <v>44542</v>
+        <v>44540</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>5</v>
@@ -5548,13 +5655,13 @@
     </row>
     <row r="24" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="12">
-        <v>44543</v>
+        <v>44541</v>
       </c>
       <c r="C24" s="12">
-        <v>44545</v>
+        <v>44542</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>5</v>
@@ -5682,10 +5789,18 @@
       <c r="DU24" s="14"/>
     </row>
     <row r="25" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="12">
+        <v>44543</v>
+      </c>
+      <c r="C25" s="12">
+        <v>44545</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="E25" s="25"/>
       <c r="F25" s="7"/>
       <c r="G25" s="6"/>
@@ -12031,7 +12146,12 @@
       <c r="DT74" s="4"/>
       <c r="DU74" s="14"/>
     </row>
-    <row r="75" spans="1:125" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="25"/>
       <c r="F75" s="7"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -12067,6 +12187,128 @@
       <c r="AL75" s="6"/>
       <c r="AM75" s="6"/>
       <c r="AN75" s="6"/>
+      <c r="AO75" s="4"/>
+      <c r="AP75" s="4"/>
+      <c r="AQ75" s="4"/>
+      <c r="AR75" s="4"/>
+      <c r="AS75" s="4"/>
+      <c r="AT75" s="4"/>
+      <c r="AU75" s="4"/>
+      <c r="AV75" s="4"/>
+      <c r="AW75" s="4"/>
+      <c r="AX75" s="4"/>
+      <c r="AY75" s="4"/>
+      <c r="AZ75" s="4"/>
+      <c r="BA75" s="4"/>
+      <c r="BB75" s="4"/>
+      <c r="BC75" s="4"/>
+      <c r="BD75" s="4"/>
+      <c r="BE75" s="4"/>
+      <c r="BF75" s="4"/>
+      <c r="BG75" s="4"/>
+      <c r="BH75" s="4"/>
+      <c r="BI75" s="4"/>
+      <c r="BJ75" s="4"/>
+      <c r="BK75" s="4"/>
+      <c r="BL75" s="4"/>
+      <c r="BM75" s="4"/>
+      <c r="BN75" s="4"/>
+      <c r="BO75" s="4"/>
+      <c r="BP75" s="4"/>
+      <c r="BQ75" s="4"/>
+      <c r="BR75" s="4"/>
+      <c r="BS75" s="4"/>
+      <c r="BT75" s="4"/>
+      <c r="BU75" s="4"/>
+      <c r="BV75" s="4"/>
+      <c r="BW75" s="4"/>
+      <c r="BX75" s="4"/>
+      <c r="BY75" s="4"/>
+      <c r="BZ75" s="4"/>
+      <c r="CA75" s="4"/>
+      <c r="CB75" s="4"/>
+      <c r="CC75" s="4"/>
+      <c r="CD75" s="4"/>
+      <c r="CE75" s="4"/>
+      <c r="CF75" s="4"/>
+      <c r="CG75" s="4"/>
+      <c r="CH75" s="4"/>
+      <c r="CI75" s="4"/>
+      <c r="CJ75" s="4"/>
+      <c r="CK75" s="4"/>
+      <c r="CL75" s="4"/>
+      <c r="CM75" s="4"/>
+      <c r="CN75" s="4"/>
+      <c r="CO75" s="4"/>
+      <c r="CP75" s="4"/>
+      <c r="CQ75" s="4"/>
+      <c r="CR75" s="4"/>
+      <c r="CS75" s="4"/>
+      <c r="CT75" s="4"/>
+      <c r="CU75" s="4"/>
+      <c r="CV75" s="4"/>
+      <c r="CW75" s="4"/>
+      <c r="CX75" s="4"/>
+      <c r="CY75" s="4"/>
+      <c r="CZ75" s="4"/>
+      <c r="DA75" s="4"/>
+      <c r="DB75" s="4"/>
+      <c r="DC75" s="4"/>
+      <c r="DD75" s="4"/>
+      <c r="DE75" s="4"/>
+      <c r="DF75" s="4"/>
+      <c r="DG75" s="4"/>
+      <c r="DH75" s="4"/>
+      <c r="DI75" s="4"/>
+      <c r="DJ75" s="4"/>
+      <c r="DK75" s="4"/>
+      <c r="DL75" s="4"/>
+      <c r="DM75" s="4"/>
+      <c r="DN75" s="4"/>
+      <c r="DO75" s="4"/>
+      <c r="DP75" s="4"/>
+      <c r="DQ75" s="4"/>
+      <c r="DR75" s="4"/>
+      <c r="DS75" s="4"/>
+      <c r="DT75" s="4"/>
+      <c r="DU75" s="14"/>
+    </row>
+    <row r="76" spans="1:125" x14ac:dyDescent="0.4">
+      <c r="F76" s="7"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6"/>
+      <c r="AB76" s="6"/>
+      <c r="AC76" s="6"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="6"/>
+      <c r="AG76" s="6"/>
+      <c r="AH76" s="6"/>
+      <c r="AI76" s="6"/>
+      <c r="AJ76" s="6"/>
+      <c r="AK76" s="6"/>
+      <c r="AL76" s="6"/>
+      <c r="AM76" s="6"/>
+      <c r="AN76" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D3" xr:uid="{813E0C2A-3FE3-447E-8FA6-E7A39041206B}">
@@ -12081,43 +12323,56 @@
     <mergeCell ref="D1:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F4:DU9 AO20:DU74 F20:AN75 F11:DU16 F18:DU19">
-    <cfRule type="expression" dxfId="15" priority="18">
+  <conditionalFormatting sqref="F4:DU9 F18:DU20 F11:DU16 F22:AN76 AO22:DU75">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>AND(F$2&gt;=$B4,E&amp;2&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:DU9 F11:DU16 F18:DU74">
-    <cfRule type="expression" dxfId="13" priority="16">
+  <conditionalFormatting sqref="F4:DU9 F11:DU16 F18:DU20 F22:DU75">
+    <cfRule type="expression" dxfId="21" priority="20">
       <formula>AND(F$2&gt;=$B4,F$2&lt;=$C4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:DU10">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>AND(F$2&gt;=$B10,E&amp;2&lt;=$F10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:DU10">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>AND(F$2&gt;=$B10,F$2&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:DU17">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>AND(F$2&gt;=$B17,E&amp;2&lt;=$F17)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:DU17">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>AND(F$2&gt;=$B17,F$2&lt;=$C17)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:DU21">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND(F$2&gt;=$B21,E&amp;2&lt;=$F21)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>OR(WEEKDAY(F$3)=1,WEEKDAY(F$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:DU21">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(F$2&gt;=$B21,F$2&lt;=$C21)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12126,7 +12381,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="23" id="{833B840C-C56B-4CE1-99AB-1A57299583A7}">
+          <x14:cfRule type="expression" priority="27" id="{833B840C-C56B-4CE1-99AB-1A57299583A7}">
             <xm:f>$D4 =設定!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -12143,10 +12398,10 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E9 A11:E16 A44:E75 A20:E21 B22:E43</xm:sqref>
+          <xm:sqref>A4:E9 A11:E16 A45:E76 A20:E20 B23:E44 A22:E22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="12" id="{01322F23-B3E2-4456-A206-F8D97D759BFC}">
+          <x14:cfRule type="expression" priority="16" id="{01322F23-B3E2-4456-A206-F8D97D759BFC}">
             <xm:f>$D10 =設定!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -12166,7 +12421,7 @@
           <xm:sqref>A10:E10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="8" id="{859AB6B1-5352-4065-978B-A733B200989B}">
+          <x14:cfRule type="expression" priority="12" id="{859AB6B1-5352-4065-978B-A733B200989B}">
             <xm:f>$D18 =設定!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -12186,7 +12441,7 @@
           <xm:sqref>A18:E19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{26FB132E-5889-4A3F-929A-42B2854719F9}">
+          <x14:cfRule type="expression" priority="8" id="{26FB132E-5889-4A3F-929A-42B2854719F9}">
             <xm:f>$D17 =設定!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -12205,6 +12460,26 @@
           </x14:cfRule>
           <xm:sqref>A17:E17</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{1A4D675B-F254-4B7D-8C2C-24B85962E8CA}">
+            <xm:f>$D21 =設定!$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="darkGrid">
+                  <fgColor theme="0" tint="-0.34998626667073579"/>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left/>
+                <right/>
+                <top/>
+                <bottom/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A21:E21</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -12213,7 +12488,7 @@
           <x14:formula1>
             <xm:f>設定!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:E75</xm:sqref>
+          <xm:sqref>D4:E76</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12406,21 +12681,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004302F2D77EE64E478C60EF5F0F5269A4" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ea455938686a56006572c2c38cacaea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71640177-36f4-4fe3-8ab8-fd1fb7d60170" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05b37b0ac82d12c9365622fdb5a02a83" ns3:_="">
     <xsd:import namespace="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
@@ -12552,10 +12812,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12577,19 +12862,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8511C458-E602-4DD5-96D7-EA4D9F984E39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC861CCB-7BF2-4957-A80F-149338CFE5F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71640177-36f4-4fe3-8ab8-fd1fb7d60170"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>